--- a/blanco-meta/rest/Ng.xlsx
+++ b/blanco-meta/rest/Ng.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuji/projects/dapanda/dapanda-api-core/blanco-meta/rest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B80E3EBF-61E9-C04D-99D1-77BDA7CD6261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA88A4C-E40C-DB47-9680-8FCA1B5513C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4200" yWindow="1220" windowWidth="24600" windowHeight="14720" tabRatio="641" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="193">
   <si>
     <t>項目名</t>
     <rPh sb="0" eb="3">
@@ -3603,45 +3603,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3651,23 +3612,77 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="44" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3690,111 +3705,96 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="44" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="44" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3959,6 +3959,9 @@
           <cell r="G6" t="str">
             <v>query</v>
           </cell>
+        </row>
+        <row r="7">
+          <cell r="G7"/>
         </row>
       </sheetData>
     </sheetDataSet>
@@ -4307,7 +4310,7 @@
   <dimension ref="A1:O70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:E7"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -4350,122 +4353,122 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="212" t="s">
+      <c r="A5" s="162" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="212"/>
-      <c r="C5" s="212"/>
-      <c r="D5" s="212"/>
-      <c r="E5" s="212"/>
+      <c r="B5" s="162"/>
+      <c r="C5" s="162"/>
+      <c r="D5" s="162"/>
+      <c r="E5" s="162"/>
       <c r="F5" s="47"/>
       <c r="G5" s="47"/>
       <c r="H5" s="84"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="208" t="s">
+      <c r="A6" s="167" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="209"/>
-      <c r="C6" s="210"/>
-      <c r="D6" s="207" t="s">
+      <c r="B6" s="168"/>
+      <c r="C6" s="169"/>
+      <c r="D6" s="163" t="s">
         <v>191</v>
       </c>
-      <c r="E6" s="207"/>
+      <c r="E6" s="163"/>
       <c r="F6" s="47"/>
       <c r="G6" s="47"/>
       <c r="H6" s="84"/>
     </row>
     <row r="7" spans="1:8" ht="141" customHeight="1">
-      <c r="A7" s="211" t="s">
+      <c r="A7" s="170" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="211"/>
-      <c r="C7" s="211"/>
-      <c r="D7" s="213" t="s">
+      <c r="B7" s="170"/>
+      <c r="C7" s="170"/>
+      <c r="D7" s="164" t="s">
         <v>184</v>
       </c>
-      <c r="E7" s="214"/>
+      <c r="E7" s="165"/>
       <c r="F7" s="47"/>
       <c r="G7" s="47"/>
       <c r="H7" s="84"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="212" t="s">
+      <c r="A8" s="162" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="212"/>
-      <c r="C8" s="212"/>
-      <c r="D8" s="207" t="s">
+      <c r="B8" s="162"/>
+      <c r="C8" s="162"/>
+      <c r="D8" s="163" t="s">
         <v>192</v>
       </c>
-      <c r="E8" s="207"/>
+      <c r="E8" s="163"/>
       <c r="F8" s="84"/>
       <c r="G8" s="84"/>
       <c r="H8" s="84"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="212" t="s">
+      <c r="A9" s="162" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="212"/>
-      <c r="C9" s="212"/>
-      <c r="D9" s="207"/>
-      <c r="E9" s="207"/>
+      <c r="B9" s="162"/>
+      <c r="C9" s="162"/>
+      <c r="D9" s="163"/>
+      <c r="E9" s="163"/>
       <c r="F9" s="84"/>
       <c r="G9" s="84"/>
       <c r="H9" s="84"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="212" t="s">
+      <c r="A10" s="162" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="212"/>
-      <c r="C10" s="212"/>
-      <c r="D10" s="207" t="s">
+      <c r="B10" s="162"/>
+      <c r="C10" s="162"/>
+      <c r="D10" s="163" t="s">
         <v>185</v>
       </c>
-      <c r="E10" s="207"/>
+      <c r="E10" s="163"/>
       <c r="F10" s="84"/>
       <c r="G10" s="84"/>
       <c r="H10" s="84"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="212" t="s">
+      <c r="A11" s="162" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="212"/>
-      <c r="C11" s="212"/>
-      <c r="D11" s="207" t="s">
+      <c r="B11" s="162"/>
+      <c r="C11" s="162"/>
+      <c r="D11" s="163" t="s">
         <v>185</v>
       </c>
-      <c r="E11" s="207"/>
+      <c r="E11" s="163"/>
       <c r="F11" s="84"/>
       <c r="G11" s="84"/>
       <c r="H11" s="84"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="196" t="s">
+      <c r="A12" s="171" t="s">
         <v>127</v>
       </c>
-      <c r="B12" s="196"/>
-      <c r="C12" s="196"/>
-      <c r="D12" s="198" t="s">
+      <c r="B12" s="171"/>
+      <c r="C12" s="171"/>
+      <c r="D12" s="166" t="s">
         <v>147</v>
       </c>
-      <c r="E12" s="198"/>
+      <c r="E12" s="166"/>
       <c r="F12" s="84" t="s">
         <v>128</v>
       </c>
       <c r="G12" s="46"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="196" t="s">
+      <c r="A13" s="171" t="s">
         <v>129</v>
       </c>
-      <c r="B13" s="196"/>
-      <c r="C13" s="196"/>
-      <c r="D13" s="198"/>
-      <c r="E13" s="198"/>
+      <c r="B13" s="171"/>
+      <c r="C13" s="171"/>
+      <c r="D13" s="166"/>
+      <c r="E13" s="166"/>
       <c r="F13" s="46" t="s">
         <v>150</v>
       </c>
@@ -4473,39 +4476,41 @@
       <c r="H13" s="84"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="196" t="s">
+      <c r="A14" s="171" t="s">
         <v>157</v>
       </c>
-      <c r="B14" s="196"/>
-      <c r="C14" s="196"/>
-      <c r="D14" s="197" t="s">
+      <c r="B14" s="171"/>
+      <c r="C14" s="171"/>
+      <c r="D14" s="174" t="s">
         <v>170</v>
       </c>
-      <c r="E14" s="198"/>
+      <c r="E14" s="166"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="196" t="s">
+      <c r="A15" s="171" t="s">
         <v>158</v>
       </c>
-      <c r="B15" s="196"/>
-      <c r="C15" s="196"/>
-      <c r="D15" s="197"/>
-      <c r="E15" s="198"/>
+      <c r="B15" s="171"/>
+      <c r="C15" s="171"/>
+      <c r="D15" s="174"/>
+      <c r="E15" s="166"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="199" t="s">
+      <c r="A16" s="175" t="s">
         <v>110</v>
       </c>
-      <c r="B16" s="200"/>
-      <c r="C16" s="201"/>
-      <c r="D16" s="103"/>
+      <c r="B16" s="176"/>
+      <c r="C16" s="177"/>
+      <c r="D16" s="103" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="204" t="s">
+      <c r="A17" s="183" t="s">
         <v>130</v>
       </c>
-      <c r="B17" s="205"/>
-      <c r="C17" s="206"/>
+      <c r="B17" s="184"/>
+      <c r="C17" s="185"/>
       <c r="D17" s="89"/>
       <c r="E17" t="s">
         <v>131</v>
@@ -4523,15 +4528,15 @@
       <c r="B18" s="6"/>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="158" t="s">
+      <c r="A19" s="205" t="s">
         <v>138</v>
       </c>
-      <c r="B19" s="159"/>
-      <c r="C19" s="159"/>
-      <c r="D19" s="159"/>
-      <c r="E19" s="159"/>
-      <c r="F19" s="159"/>
-      <c r="G19" s="160"/>
+      <c r="B19" s="206"/>
+      <c r="C19" s="206"/>
+      <c r="D19" s="206"/>
+      <c r="E19" s="206"/>
+      <c r="F19" s="206"/>
+      <c r="G19" s="207"/>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="90" t="s">
@@ -4579,28 +4584,28 @@
       <c r="C23"/>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="167" t="s">
+      <c r="A24" s="214" t="s">
         <v>139</v>
       </c>
-      <c r="B24" s="167"/>
-      <c r="C24" s="167"/>
-      <c r="D24" s="167"/>
-      <c r="E24" s="167"/>
-      <c r="F24" s="167"/>
-      <c r="G24" s="167"/>
+      <c r="B24" s="214"/>
+      <c r="C24" s="214"/>
+      <c r="D24" s="214"/>
+      <c r="E24" s="214"/>
+      <c r="F24" s="214"/>
+      <c r="G24" s="214"/>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="104" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="161" t="s">
+      <c r="B25" s="208" t="s">
         <v>134</v>
       </c>
-      <c r="C25" s="162"/>
-      <c r="D25" s="162"/>
-      <c r="E25" s="162"/>
-      <c r="F25" s="162"/>
-      <c r="G25" s="163"/>
+      <c r="C25" s="209"/>
+      <c r="D25" s="209"/>
+      <c r="E25" s="209"/>
+      <c r="F25" s="209"/>
+      <c r="G25" s="210"/>
       <c r="H25" s="94"/>
       <c r="I25" s="94"/>
       <c r="J25" s="94"/>
@@ -4611,12 +4616,12 @@
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="105"/>
-      <c r="B26" s="183"/>
-      <c r="C26" s="183"/>
-      <c r="D26" s="183"/>
-      <c r="E26" s="183"/>
-      <c r="F26" s="183"/>
-      <c r="G26" s="183"/>
+      <c r="B26" s="188"/>
+      <c r="C26" s="188"/>
+      <c r="D26" s="188"/>
+      <c r="E26" s="188"/>
+      <c r="F26" s="188"/>
+      <c r="G26" s="188"/>
       <c r="H26" s="101"/>
       <c r="I26" s="101"/>
       <c r="J26" s="101"/>
@@ -4627,12 +4632,12 @@
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="106"/>
-      <c r="B27" s="184"/>
-      <c r="C27" s="184"/>
-      <c r="D27" s="184"/>
-      <c r="E27" s="184"/>
-      <c r="F27" s="184"/>
-      <c r="G27" s="184"/>
+      <c r="B27" s="189"/>
+      <c r="C27" s="189"/>
+      <c r="D27" s="189"/>
+      <c r="E27" s="189"/>
+      <c r="F27" s="189"/>
+      <c r="G27" s="189"/>
       <c r="H27" s="101"/>
       <c r="I27" s="101"/>
       <c r="J27" s="101"/>
@@ -4643,12 +4648,12 @@
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="107"/>
-      <c r="B28" s="185"/>
-      <c r="C28" s="185"/>
-      <c r="D28" s="185"/>
-      <c r="E28" s="185"/>
-      <c r="F28" s="185"/>
-      <c r="G28" s="185"/>
+      <c r="B28" s="190"/>
+      <c r="C28" s="190"/>
+      <c r="D28" s="190"/>
+      <c r="E28" s="190"/>
+      <c r="F28" s="190"/>
+      <c r="G28" s="190"/>
       <c r="H28" s="101"/>
       <c r="I28" s="101"/>
       <c r="J28" s="101"/>
@@ -4661,28 +4666,28 @@
       <c r="C29"/>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="164" t="s">
+      <c r="A30" s="211" t="s">
         <v>140</v>
       </c>
-      <c r="B30" s="165"/>
-      <c r="C30" s="165"/>
-      <c r="D30" s="165"/>
-      <c r="E30" s="165"/>
-      <c r="F30" s="165"/>
-      <c r="G30" s="166"/>
+      <c r="B30" s="212"/>
+      <c r="C30" s="212"/>
+      <c r="D30" s="212"/>
+      <c r="E30" s="212"/>
+      <c r="F30" s="212"/>
+      <c r="G30" s="213"/>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="104" t="s">
         <v>68</v>
       </c>
-      <c r="B31" s="168" t="s">
+      <c r="B31" s="180" t="s">
         <v>135</v>
       </c>
-      <c r="C31" s="168"/>
-      <c r="D31" s="168"/>
-      <c r="E31" s="168"/>
-      <c r="F31" s="168"/>
-      <c r="G31" s="168"/>
+      <c r="C31" s="180"/>
+      <c r="D31" s="180"/>
+      <c r="E31" s="180"/>
+      <c r="F31" s="180"/>
+      <c r="G31" s="180"/>
       <c r="H31" s="94"/>
       <c r="I31" s="94"/>
       <c r="J31" s="94"/>
@@ -4693,12 +4698,12 @@
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="105"/>
-      <c r="B32" s="169"/>
-      <c r="C32" s="169"/>
-      <c r="D32" s="169"/>
-      <c r="E32" s="169"/>
-      <c r="F32" s="169"/>
-      <c r="G32" s="169"/>
+      <c r="B32" s="181"/>
+      <c r="C32" s="181"/>
+      <c r="D32" s="181"/>
+      <c r="E32" s="181"/>
+      <c r="F32" s="181"/>
+      <c r="G32" s="181"/>
       <c r="H32" s="101"/>
       <c r="I32" s="101"/>
       <c r="J32" s="101"/>
@@ -4709,12 +4714,12 @@
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="106"/>
-      <c r="B33" s="192"/>
-      <c r="C33" s="192"/>
-      <c r="D33" s="192"/>
-      <c r="E33" s="192"/>
-      <c r="F33" s="192"/>
-      <c r="G33" s="192"/>
+      <c r="B33" s="178"/>
+      <c r="C33" s="178"/>
+      <c r="D33" s="178"/>
+      <c r="E33" s="178"/>
+      <c r="F33" s="178"/>
+      <c r="G33" s="178"/>
       <c r="H33" s="101"/>
       <c r="I33" s="101"/>
       <c r="J33" s="101"/>
@@ -4725,12 +4730,12 @@
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="107"/>
-      <c r="B34" s="202"/>
-      <c r="C34" s="202"/>
-      <c r="D34" s="202"/>
-      <c r="E34" s="202"/>
-      <c r="F34" s="202"/>
-      <c r="G34" s="202"/>
+      <c r="B34" s="179"/>
+      <c r="C34" s="179"/>
+      <c r="D34" s="179"/>
+      <c r="E34" s="179"/>
+      <c r="F34" s="179"/>
+      <c r="G34" s="179"/>
       <c r="H34" s="101"/>
       <c r="I34" s="101"/>
       <c r="J34" s="101"/>
@@ -4755,28 +4760,28 @@
       <c r="M35"/>
     </row>
     <row r="36" spans="1:15">
-      <c r="A36" s="164" t="s">
+      <c r="A36" s="211" t="s">
         <v>141</v>
       </c>
-      <c r="B36" s="165"/>
-      <c r="C36" s="165"/>
-      <c r="D36" s="165"/>
-      <c r="E36" s="165"/>
-      <c r="F36" s="165"/>
-      <c r="G36" s="166"/>
+      <c r="B36" s="212"/>
+      <c r="C36" s="212"/>
+      <c r="D36" s="212"/>
+      <c r="E36" s="212"/>
+      <c r="F36" s="212"/>
+      <c r="G36" s="213"/>
     </row>
     <row r="37" spans="1:15">
       <c r="A37" s="104" t="s">
         <v>68</v>
       </c>
-      <c r="B37" s="168" t="s">
+      <c r="B37" s="180" t="s">
         <v>136</v>
       </c>
-      <c r="C37" s="168"/>
-      <c r="D37" s="168"/>
-      <c r="E37" s="168"/>
-      <c r="F37" s="168"/>
-      <c r="G37" s="168"/>
+      <c r="C37" s="180"/>
+      <c r="D37" s="180"/>
+      <c r="E37" s="180"/>
+      <c r="F37" s="180"/>
+      <c r="G37" s="180"/>
       <c r="H37" s="94"/>
       <c r="I37" s="94"/>
       <c r="J37" s="94"/>
@@ -4789,12 +4794,12 @@
       <c r="A38" s="105">
         <v>1</v>
       </c>
-      <c r="B38" s="169"/>
-      <c r="C38" s="169"/>
-      <c r="D38" s="169"/>
-      <c r="E38" s="169"/>
-      <c r="F38" s="169"/>
-      <c r="G38" s="203"/>
+      <c r="B38" s="181"/>
+      <c r="C38" s="181"/>
+      <c r="D38" s="181"/>
+      <c r="E38" s="181"/>
+      <c r="F38" s="181"/>
+      <c r="G38" s="182"/>
       <c r="H38" s="101"/>
       <c r="I38" s="101"/>
       <c r="J38" s="101"/>
@@ -4805,12 +4810,12 @@
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="106"/>
-      <c r="B39" s="192"/>
-      <c r="C39" s="192"/>
-      <c r="D39" s="192"/>
-      <c r="E39" s="192"/>
-      <c r="F39" s="192"/>
-      <c r="G39" s="193"/>
+      <c r="B39" s="178"/>
+      <c r="C39" s="178"/>
+      <c r="D39" s="178"/>
+      <c r="E39" s="178"/>
+      <c r="F39" s="178"/>
+      <c r="G39" s="197"/>
       <c r="H39" s="101"/>
       <c r="I39" s="101"/>
       <c r="J39" s="101"/>
@@ -4821,12 +4826,12 @@
     </row>
     <row r="40" spans="1:15">
       <c r="A40" s="141"/>
-      <c r="B40" s="194"/>
-      <c r="C40" s="194"/>
-      <c r="D40" s="194"/>
-      <c r="E40" s="194"/>
-      <c r="F40" s="194"/>
-      <c r="G40" s="195"/>
+      <c r="B40" s="172"/>
+      <c r="C40" s="172"/>
+      <c r="D40" s="172"/>
+      <c r="E40" s="172"/>
+      <c r="F40" s="172"/>
+      <c r="G40" s="173"/>
       <c r="H40" s="101"/>
       <c r="I40" s="101"/>
       <c r="J40" s="101"/>
@@ -4852,15 +4857,15 @@
       <c r="O41" s="150"/>
     </row>
     <row r="42" spans="1:15">
-      <c r="A42" s="157" t="s">
+      <c r="A42" s="204" t="s">
         <v>177</v>
       </c>
-      <c r="B42" s="157"/>
-      <c r="C42" s="157"/>
-      <c r="D42" s="157"/>
-      <c r="E42" s="157"/>
-      <c r="F42" s="157"/>
-      <c r="G42" s="157"/>
+      <c r="B42" s="204"/>
+      <c r="C42" s="204"/>
+      <c r="D42" s="204"/>
+      <c r="E42" s="204"/>
+      <c r="F42" s="204"/>
+      <c r="G42" s="204"/>
       <c r="H42"/>
       <c r="I42"/>
       <c r="J42"/>
@@ -4949,211 +4954,279 @@
       <c r="G48" s="121"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="175" t="s">
+      <c r="A49" s="198" t="s">
         <v>65</v>
       </c>
-      <c r="B49" s="176"/>
-      <c r="C49" s="175" t="s">
+      <c r="B49" s="199"/>
+      <c r="C49" s="198" t="s">
         <v>66</v>
       </c>
-      <c r="D49" s="179"/>
-      <c r="E49" s="180"/>
+      <c r="D49" s="202"/>
+      <c r="E49" s="203"/>
       <c r="F49" s="122" t="s">
         <v>151</v>
       </c>
       <c r="G49" s="121"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="177"/>
-      <c r="B50" s="178"/>
-      <c r="C50" s="186"/>
-      <c r="D50" s="187"/>
-      <c r="E50" s="188"/>
+      <c r="A50" s="200"/>
+      <c r="B50" s="201"/>
+      <c r="C50" s="191"/>
+      <c r="D50" s="192"/>
+      <c r="E50" s="193"/>
       <c r="F50" s="3"/>
       <c r="G50" s="43"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="170"/>
-      <c r="B51" s="171"/>
-      <c r="C51" s="172"/>
-      <c r="D51" s="173"/>
-      <c r="E51" s="174"/>
+      <c r="A51" s="157"/>
+      <c r="B51" s="158"/>
+      <c r="C51" s="159"/>
+      <c r="D51" s="160"/>
+      <c r="E51" s="161"/>
       <c r="F51" s="3"/>
       <c r="G51" s="43"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="170"/>
-      <c r="B52" s="171"/>
-      <c r="C52" s="172"/>
-      <c r="D52" s="173"/>
-      <c r="E52" s="174"/>
+      <c r="A52" s="157"/>
+      <c r="B52" s="158"/>
+      <c r="C52" s="159"/>
+      <c r="D52" s="160"/>
+      <c r="E52" s="161"/>
       <c r="F52" s="3"/>
       <c r="G52" s="43"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="170"/>
-      <c r="B53" s="171"/>
-      <c r="C53" s="172"/>
-      <c r="D53" s="173"/>
-      <c r="E53" s="174"/>
+      <c r="A53" s="157"/>
+      <c r="B53" s="158"/>
+      <c r="C53" s="159"/>
+      <c r="D53" s="160"/>
+      <c r="E53" s="161"/>
       <c r="F53" s="3"/>
       <c r="G53" s="43"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="170"/>
-      <c r="B54" s="171"/>
-      <c r="C54" s="172"/>
-      <c r="D54" s="173"/>
-      <c r="E54" s="174"/>
+      <c r="A54" s="157"/>
+      <c r="B54" s="158"/>
+      <c r="C54" s="159"/>
+      <c r="D54" s="160"/>
+      <c r="E54" s="161"/>
       <c r="F54" s="3"/>
       <c r="G54" s="43"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="170"/>
-      <c r="B55" s="171"/>
-      <c r="C55" s="172"/>
-      <c r="D55" s="173"/>
-      <c r="E55" s="174"/>
+      <c r="A55" s="157"/>
+      <c r="B55" s="158"/>
+      <c r="C55" s="159"/>
+      <c r="D55" s="160"/>
+      <c r="E55" s="161"/>
       <c r="F55" s="3"/>
       <c r="G55" s="43"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="170"/>
-      <c r="B56" s="171"/>
-      <c r="C56" s="172"/>
-      <c r="D56" s="173"/>
-      <c r="E56" s="174"/>
+      <c r="A56" s="157"/>
+      <c r="B56" s="158"/>
+      <c r="C56" s="159"/>
+      <c r="D56" s="160"/>
+      <c r="E56" s="161"/>
       <c r="F56" s="3"/>
       <c r="G56" s="43"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="170"/>
-      <c r="B57" s="171"/>
-      <c r="C57" s="172"/>
-      <c r="D57" s="173"/>
-      <c r="E57" s="174"/>
+      <c r="A57" s="157"/>
+      <c r="B57" s="158"/>
+      <c r="C57" s="159"/>
+      <c r="D57" s="160"/>
+      <c r="E57" s="161"/>
       <c r="F57" s="3"/>
       <c r="G57" s="43"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="170"/>
-      <c r="B58" s="171"/>
-      <c r="C58" s="172"/>
-      <c r="D58" s="173"/>
-      <c r="E58" s="174"/>
+      <c r="A58" s="157"/>
+      <c r="B58" s="158"/>
+      <c r="C58" s="159"/>
+      <c r="D58" s="160"/>
+      <c r="E58" s="161"/>
       <c r="F58" s="3"/>
       <c r="G58" s="43"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="170"/>
-      <c r="B59" s="171"/>
-      <c r="C59" s="172"/>
-      <c r="D59" s="173"/>
-      <c r="E59" s="174"/>
+      <c r="A59" s="157"/>
+      <c r="B59" s="158"/>
+      <c r="C59" s="159"/>
+      <c r="D59" s="160"/>
+      <c r="E59" s="161"/>
       <c r="F59" s="3"/>
       <c r="G59" s="43"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="170"/>
-      <c r="B60" s="171"/>
-      <c r="C60" s="172"/>
-      <c r="D60" s="173"/>
-      <c r="E60" s="174"/>
+      <c r="A60" s="157"/>
+      <c r="B60" s="158"/>
+      <c r="C60" s="159"/>
+      <c r="D60" s="160"/>
+      <c r="E60" s="161"/>
       <c r="F60" s="3"/>
       <c r="G60" s="43"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="170"/>
-      <c r="B61" s="171"/>
-      <c r="C61" s="172"/>
-      <c r="D61" s="173"/>
-      <c r="E61" s="174"/>
+      <c r="A61" s="157"/>
+      <c r="B61" s="158"/>
+      <c r="C61" s="159"/>
+      <c r="D61" s="160"/>
+      <c r="E61" s="161"/>
       <c r="F61" s="3"/>
       <c r="G61" s="43"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="170"/>
-      <c r="B62" s="171"/>
-      <c r="C62" s="172"/>
-      <c r="D62" s="173"/>
-      <c r="E62" s="174"/>
+      <c r="A62" s="157"/>
+      <c r="B62" s="158"/>
+      <c r="C62" s="159"/>
+      <c r="D62" s="160"/>
+      <c r="E62" s="161"/>
       <c r="F62" s="3"/>
       <c r="G62" s="43"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="170"/>
-      <c r="B63" s="171"/>
-      <c r="C63" s="172"/>
-      <c r="D63" s="173"/>
-      <c r="E63" s="174"/>
+      <c r="A63" s="157"/>
+      <c r="B63" s="158"/>
+      <c r="C63" s="159"/>
+      <c r="D63" s="160"/>
+      <c r="E63" s="161"/>
       <c r="F63" s="3"/>
       <c r="G63" s="43"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="170"/>
-      <c r="B64" s="171"/>
-      <c r="C64" s="172"/>
-      <c r="D64" s="173"/>
-      <c r="E64" s="174"/>
+      <c r="A64" s="157"/>
+      <c r="B64" s="158"/>
+      <c r="C64" s="159"/>
+      <c r="D64" s="160"/>
+      <c r="E64" s="161"/>
       <c r="F64" s="3"/>
       <c r="G64" s="43"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="170"/>
-      <c r="B65" s="171"/>
-      <c r="C65" s="172"/>
-      <c r="D65" s="173"/>
-      <c r="E65" s="174"/>
+      <c r="A65" s="157"/>
+      <c r="B65" s="158"/>
+      <c r="C65" s="159"/>
+      <c r="D65" s="160"/>
+      <c r="E65" s="161"/>
       <c r="F65" s="3"/>
       <c r="G65" s="43"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="170"/>
-      <c r="B66" s="171"/>
-      <c r="C66" s="172"/>
-      <c r="D66" s="173"/>
-      <c r="E66" s="174"/>
+      <c r="A66" s="157"/>
+      <c r="B66" s="158"/>
+      <c r="C66" s="159"/>
+      <c r="D66" s="160"/>
+      <c r="E66" s="161"/>
       <c r="F66" s="3"/>
       <c r="G66" s="43"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="170"/>
-      <c r="B67" s="171"/>
-      <c r="C67" s="172"/>
-      <c r="D67" s="173"/>
-      <c r="E67" s="174"/>
+      <c r="A67" s="157"/>
+      <c r="B67" s="158"/>
+      <c r="C67" s="159"/>
+      <c r="D67" s="160"/>
+      <c r="E67" s="161"/>
       <c r="F67" s="3"/>
       <c r="G67" s="43"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="170"/>
-      <c r="B68" s="171"/>
-      <c r="C68" s="172"/>
-      <c r="D68" s="173"/>
-      <c r="E68" s="174"/>
+      <c r="A68" s="157"/>
+      <c r="B68" s="158"/>
+      <c r="C68" s="159"/>
+      <c r="D68" s="160"/>
+      <c r="E68" s="161"/>
       <c r="F68" s="3"/>
       <c r="G68" s="43"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="170"/>
-      <c r="B69" s="171"/>
-      <c r="C69" s="172"/>
-      <c r="D69" s="173"/>
-      <c r="E69" s="174"/>
+      <c r="A69" s="157"/>
+      <c r="B69" s="158"/>
+      <c r="C69" s="159"/>
+      <c r="D69" s="160"/>
+      <c r="E69" s="161"/>
       <c r="F69" s="3"/>
       <c r="G69" s="43"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="181"/>
-      <c r="B70" s="182"/>
-      <c r="C70" s="189"/>
-      <c r="D70" s="190"/>
-      <c r="E70" s="191"/>
+      <c r="A70" s="186"/>
+      <c r="B70" s="187"/>
+      <c r="C70" s="194"/>
+      <c r="D70" s="195"/>
+      <c r="E70" s="196"/>
       <c r="F70" s="112"/>
       <c r="G70" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="84">
+    <mergeCell ref="A42:G42"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A24:G24"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C69:E69"/>
+    <mergeCell ref="C70:E70"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
     <mergeCell ref="A68:B68"/>
     <mergeCell ref="A60:B60"/>
     <mergeCell ref="C60:E60"/>
@@ -5170,74 +5243,6 @@
     <mergeCell ref="C64:E64"/>
     <mergeCell ref="C65:E65"/>
     <mergeCell ref="C66:E66"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C69:E69"/>
-    <mergeCell ref="C70:E70"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A42:G42"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A24:G24"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B32:G32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="2">
@@ -5437,10 +5442,10 @@
         <v>127</v>
       </c>
       <c r="B15" s="127"/>
-      <c r="C15" s="198" t="s">
+      <c r="C15" s="166" t="s">
         <v>147</v>
       </c>
-      <c r="D15" s="198"/>
+      <c r="D15" s="166"/>
       <c r="E15" s="1" t="s">
         <v>128</v>
       </c>
@@ -5455,8 +5460,8 @@
         <v>129</v>
       </c>
       <c r="B16" s="127"/>
-      <c r="C16" s="215"/>
-      <c r="D16" s="198"/>
+      <c r="C16" s="227"/>
+      <c r="D16" s="166"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
@@ -5468,8 +5473,8 @@
         <v>165</v>
       </c>
       <c r="B17" s="127"/>
-      <c r="C17" s="215"/>
-      <c r="D17" s="198"/>
+      <c r="C17" s="227"/>
+      <c r="D17" s="166"/>
       <c r="I17"/>
       <c r="J17"/>
       <c r="K17"/>
@@ -5533,15 +5538,15 @@
       <c r="AA20"/>
     </row>
     <row r="21" spans="1:27">
-      <c r="A21" s="167" t="s">
+      <c r="A21" s="214" t="s">
         <v>142</v>
       </c>
-      <c r="B21" s="167"/>
-      <c r="C21" s="167"/>
-      <c r="D21" s="167"/>
-      <c r="E21" s="167"/>
-      <c r="F21" s="167"/>
-      <c r="G21" s="167"/>
+      <c r="B21" s="214"/>
+      <c r="C21" s="214"/>
+      <c r="D21" s="214"/>
+      <c r="E21" s="214"/>
+      <c r="F21" s="214"/>
+      <c r="G21" s="214"/>
       <c r="I21"/>
       <c r="J21"/>
       <c r="K21"/>
@@ -5552,14 +5557,14 @@
       <c r="A22" s="104" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="161" t="s">
+      <c r="B22" s="208" t="s">
         <v>134</v>
       </c>
-      <c r="C22" s="162"/>
-      <c r="D22" s="162"/>
-      <c r="E22" s="162"/>
-      <c r="F22" s="162"/>
-      <c r="G22" s="163"/>
+      <c r="C22" s="209"/>
+      <c r="D22" s="209"/>
+      <c r="E22" s="209"/>
+      <c r="F22" s="209"/>
+      <c r="G22" s="210"/>
       <c r="H22" s="94"/>
       <c r="I22"/>
       <c r="J22"/>
@@ -5577,12 +5582,12 @@
     </row>
     <row r="23" spans="1:27">
       <c r="A23" s="105"/>
-      <c r="B23" s="183"/>
-      <c r="C23" s="183"/>
-      <c r="D23" s="183"/>
-      <c r="E23" s="183"/>
-      <c r="F23" s="183"/>
-      <c r="G23" s="183"/>
+      <c r="B23" s="188"/>
+      <c r="C23" s="188"/>
+      <c r="D23" s="188"/>
+      <c r="E23" s="188"/>
+      <c r="F23" s="188"/>
+      <c r="G23" s="188"/>
       <c r="H23" s="101"/>
       <c r="I23"/>
       <c r="J23"/>
@@ -5600,12 +5605,12 @@
     </row>
     <row r="24" spans="1:27">
       <c r="A24" s="106"/>
-      <c r="B24" s="184"/>
-      <c r="C24" s="184"/>
-      <c r="D24" s="184"/>
-      <c r="E24" s="184"/>
-      <c r="F24" s="184"/>
-      <c r="G24" s="184"/>
+      <c r="B24" s="189"/>
+      <c r="C24" s="189"/>
+      <c r="D24" s="189"/>
+      <c r="E24" s="189"/>
+      <c r="F24" s="189"/>
+      <c r="G24" s="189"/>
       <c r="H24" s="101"/>
       <c r="M24" s="101"/>
       <c r="N24" s="101"/>
@@ -5618,12 +5623,12 @@
     </row>
     <row r="25" spans="1:27">
       <c r="A25" s="107"/>
-      <c r="B25" s="185"/>
-      <c r="C25" s="185"/>
-      <c r="D25" s="185"/>
-      <c r="E25" s="185"/>
-      <c r="F25" s="185"/>
-      <c r="G25" s="185"/>
+      <c r="B25" s="190"/>
+      <c r="C25" s="190"/>
+      <c r="D25" s="190"/>
+      <c r="E25" s="190"/>
+      <c r="F25" s="190"/>
+      <c r="G25" s="190"/>
       <c r="H25" s="101"/>
       <c r="I25" s="94"/>
       <c r="J25" s="94"/>
@@ -5648,15 +5653,15 @@
       <c r="AA26" s="94"/>
     </row>
     <row r="27" spans="1:27">
-      <c r="A27" s="164" t="s">
+      <c r="A27" s="211" t="s">
         <v>143</v>
       </c>
-      <c r="B27" s="165"/>
-      <c r="C27" s="165"/>
-      <c r="D27" s="165"/>
-      <c r="E27" s="165"/>
-      <c r="F27" s="165"/>
-      <c r="G27" s="166"/>
+      <c r="B27" s="212"/>
+      <c r="C27" s="212"/>
+      <c r="D27" s="212"/>
+      <c r="E27" s="212"/>
+      <c r="F27" s="212"/>
+      <c r="G27" s="213"/>
       <c r="I27" s="94"/>
       <c r="J27" s="94"/>
       <c r="K27" s="94"/>
@@ -5667,14 +5672,14 @@
       <c r="A28" s="104" t="s">
         <v>68</v>
       </c>
-      <c r="B28" s="168" t="s">
+      <c r="B28" s="180" t="s">
         <v>135</v>
       </c>
-      <c r="C28" s="168"/>
-      <c r="D28" s="168"/>
-      <c r="E28" s="168"/>
-      <c r="F28" s="168"/>
-      <c r="G28" s="168"/>
+      <c r="C28" s="180"/>
+      <c r="D28" s="180"/>
+      <c r="E28" s="180"/>
+      <c r="F28" s="180"/>
+      <c r="G28" s="180"/>
       <c r="H28" s="94"/>
       <c r="I28"/>
       <c r="J28"/>
@@ -5694,14 +5699,14 @@
       <c r="A29" s="105">
         <v>1</v>
       </c>
-      <c r="B29" s="169" t="s">
+      <c r="B29" s="181" t="s">
         <v>173</v>
       </c>
-      <c r="C29" s="169"/>
-      <c r="D29" s="169"/>
-      <c r="E29" s="169"/>
-      <c r="F29" s="169"/>
-      <c r="G29" s="169"/>
+      <c r="C29" s="181"/>
+      <c r="D29" s="181"/>
+      <c r="E29" s="181"/>
+      <c r="F29" s="181"/>
+      <c r="G29" s="181"/>
       <c r="H29" s="101"/>
       <c r="M29" s="101"/>
       <c r="N29" s="101"/>
@@ -5716,14 +5721,14 @@
       <c r="A30" s="106">
         <v>2</v>
       </c>
-      <c r="B30" s="169" t="s">
+      <c r="B30" s="181" t="s">
         <v>172</v>
       </c>
-      <c r="C30" s="169"/>
-      <c r="D30" s="169"/>
-      <c r="E30" s="169"/>
-      <c r="F30" s="169"/>
-      <c r="G30" s="169"/>
+      <c r="C30" s="181"/>
+      <c r="D30" s="181"/>
+      <c r="E30" s="181"/>
+      <c r="F30" s="181"/>
+      <c r="G30" s="181"/>
       <c r="H30" s="101"/>
       <c r="I30" s="94"/>
       <c r="J30" s="94"/>
@@ -5787,12 +5792,12 @@
     </row>
     <row r="33" spans="1:28">
       <c r="A33" s="107"/>
-      <c r="B33" s="202"/>
-      <c r="C33" s="202"/>
-      <c r="D33" s="202"/>
-      <c r="E33" s="202"/>
-      <c r="F33" s="202"/>
-      <c r="G33" s="202"/>
+      <c r="B33" s="179"/>
+      <c r="C33" s="179"/>
+      <c r="D33" s="179"/>
+      <c r="E33" s="179"/>
+      <c r="F33" s="179"/>
+      <c r="G33" s="179"/>
       <c r="H33" s="101"/>
       <c r="I33" s="101"/>
       <c r="J33" s="101"/>
@@ -5832,15 +5837,15 @@
       <c r="AB34" s="101"/>
     </row>
     <row r="35" spans="1:28">
-      <c r="A35" s="164" t="s">
+      <c r="A35" s="211" t="s">
         <v>164</v>
       </c>
-      <c r="B35" s="165"/>
-      <c r="C35" s="165"/>
-      <c r="D35" s="165"/>
-      <c r="E35" s="165"/>
-      <c r="F35" s="165"/>
-      <c r="G35" s="166"/>
+      <c r="B35" s="212"/>
+      <c r="C35" s="212"/>
+      <c r="D35" s="212"/>
+      <c r="E35" s="212"/>
+      <c r="F35" s="212"/>
+      <c r="G35" s="213"/>
       <c r="I35" s="94"/>
       <c r="J35" s="94"/>
       <c r="K35" s="94"/>
@@ -5852,14 +5857,14 @@
       <c r="A36" s="104" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="168" t="s">
+      <c r="B36" s="180" t="s">
         <v>135</v>
       </c>
-      <c r="C36" s="168"/>
-      <c r="D36" s="168"/>
-      <c r="E36" s="168"/>
-      <c r="F36" s="168"/>
-      <c r="G36" s="168"/>
+      <c r="C36" s="180"/>
+      <c r="D36" s="180"/>
+      <c r="E36" s="180"/>
+      <c r="F36" s="180"/>
+      <c r="G36" s="180"/>
       <c r="H36" s="94"/>
       <c r="I36"/>
       <c r="J36"/>
@@ -5880,12 +5885,12 @@
       <c r="A37" s="105">
         <v>1</v>
       </c>
-      <c r="B37" s="169"/>
-      <c r="C37" s="169"/>
-      <c r="D37" s="169"/>
-      <c r="E37" s="169"/>
-      <c r="F37" s="169"/>
-      <c r="G37" s="169"/>
+      <c r="B37" s="181"/>
+      <c r="C37" s="181"/>
+      <c r="D37" s="181"/>
+      <c r="E37" s="181"/>
+      <c r="F37" s="181"/>
+      <c r="G37" s="181"/>
       <c r="H37" s="101"/>
       <c r="M37" s="101"/>
       <c r="N37" s="101"/>
@@ -5900,12 +5905,12 @@
       <c r="A38" s="106">
         <v>2</v>
       </c>
-      <c r="B38" s="219"/>
-      <c r="C38" s="219"/>
-      <c r="D38" s="219"/>
-      <c r="E38" s="219"/>
-      <c r="F38" s="219"/>
-      <c r="G38" s="219"/>
+      <c r="B38" s="215"/>
+      <c r="C38" s="215"/>
+      <c r="D38" s="215"/>
+      <c r="E38" s="215"/>
+      <c r="F38" s="215"/>
+      <c r="G38" s="215"/>
       <c r="H38" s="101"/>
       <c r="I38" s="94"/>
       <c r="J38" s="94"/>
@@ -5924,12 +5929,12 @@
     </row>
     <row r="39" spans="1:28">
       <c r="A39" s="106"/>
-      <c r="B39" s="219"/>
-      <c r="C39" s="219"/>
-      <c r="D39" s="219"/>
-      <c r="E39" s="219"/>
-      <c r="F39" s="219"/>
-      <c r="G39" s="219"/>
+      <c r="B39" s="215"/>
+      <c r="C39" s="215"/>
+      <c r="D39" s="215"/>
+      <c r="E39" s="215"/>
+      <c r="F39" s="215"/>
+      <c r="G39" s="215"/>
       <c r="H39" s="101"/>
       <c r="I39" s="94"/>
       <c r="J39" s="94"/>
@@ -5948,12 +5953,12 @@
     </row>
     <row r="40" spans="1:28">
       <c r="A40" s="106"/>
-      <c r="B40" s="219"/>
-      <c r="C40" s="219"/>
-      <c r="D40" s="219"/>
-      <c r="E40" s="219"/>
-      <c r="F40" s="219"/>
-      <c r="G40" s="219"/>
+      <c r="B40" s="215"/>
+      <c r="C40" s="215"/>
+      <c r="D40" s="215"/>
+      <c r="E40" s="215"/>
+      <c r="F40" s="215"/>
+      <c r="G40" s="215"/>
       <c r="H40" s="101"/>
       <c r="I40" s="94"/>
       <c r="J40" s="94"/>
@@ -5972,12 +5977,12 @@
     </row>
     <row r="41" spans="1:28">
       <c r="A41" s="107"/>
-      <c r="B41" s="202"/>
-      <c r="C41" s="202"/>
-      <c r="D41" s="202"/>
-      <c r="E41" s="202"/>
-      <c r="F41" s="202"/>
-      <c r="G41" s="202"/>
+      <c r="B41" s="179"/>
+      <c r="C41" s="179"/>
+      <c r="D41" s="179"/>
+      <c r="E41" s="179"/>
+      <c r="F41" s="179"/>
+      <c r="G41" s="179"/>
       <c r="H41" s="101"/>
       <c r="I41" s="101"/>
       <c r="J41" s="101"/>
@@ -6017,15 +6022,15 @@
       <c r="AA42" s="101"/>
     </row>
     <row r="43" spans="1:28">
-      <c r="A43" s="164" t="s">
+      <c r="A43" s="211" t="s">
         <v>144</v>
       </c>
-      <c r="B43" s="165"/>
-      <c r="C43" s="165"/>
-      <c r="D43" s="165"/>
-      <c r="E43" s="165"/>
-      <c r="F43" s="165"/>
-      <c r="G43" s="166"/>
+      <c r="B43" s="212"/>
+      <c r="C43" s="212"/>
+      <c r="D43" s="212"/>
+      <c r="E43" s="212"/>
+      <c r="F43" s="212"/>
+      <c r="G43" s="213"/>
       <c r="I43" s="101"/>
       <c r="J43" s="101"/>
       <c r="K43" s="101"/>
@@ -6036,14 +6041,14 @@
       <c r="A44" s="104" t="s">
         <v>68</v>
       </c>
-      <c r="B44" s="168" t="s">
+      <c r="B44" s="180" t="s">
         <v>136</v>
       </c>
-      <c r="C44" s="168"/>
-      <c r="D44" s="168"/>
-      <c r="E44" s="168"/>
-      <c r="F44" s="168"/>
-      <c r="G44" s="168"/>
+      <c r="C44" s="180"/>
+      <c r="D44" s="180"/>
+      <c r="E44" s="180"/>
+      <c r="F44" s="180"/>
+      <c r="G44" s="180"/>
       <c r="H44" s="94"/>
       <c r="I44"/>
       <c r="J44"/>
@@ -6061,12 +6066,12 @@
     </row>
     <row r="45" spans="1:28">
       <c r="A45" s="105"/>
-      <c r="B45" s="183"/>
-      <c r="C45" s="183"/>
-      <c r="D45" s="183"/>
-      <c r="E45" s="183"/>
-      <c r="F45" s="183"/>
-      <c r="G45" s="183"/>
+      <c r="B45" s="188"/>
+      <c r="C45" s="188"/>
+      <c r="D45" s="188"/>
+      <c r="E45" s="188"/>
+      <c r="F45" s="188"/>
+      <c r="G45" s="188"/>
       <c r="H45" s="101"/>
       <c r="M45" s="101"/>
       <c r="N45" s="101"/>
@@ -6079,12 +6084,12 @@
     </row>
     <row r="46" spans="1:28">
       <c r="A46" s="106"/>
-      <c r="B46" s="184"/>
-      <c r="C46" s="184"/>
-      <c r="D46" s="184"/>
-      <c r="E46" s="184"/>
-      <c r="F46" s="184"/>
-      <c r="G46" s="184"/>
+      <c r="B46" s="189"/>
+      <c r="C46" s="189"/>
+      <c r="D46" s="189"/>
+      <c r="E46" s="189"/>
+      <c r="F46" s="189"/>
+      <c r="G46" s="189"/>
       <c r="H46" s="101"/>
       <c r="M46" s="101"/>
       <c r="N46" s="101"/>
@@ -6097,12 +6102,12 @@
     </row>
     <row r="47" spans="1:28">
       <c r="A47" s="107"/>
-      <c r="B47" s="185"/>
-      <c r="C47" s="185"/>
-      <c r="D47" s="185"/>
-      <c r="E47" s="185"/>
-      <c r="F47" s="185"/>
-      <c r="G47" s="185"/>
+      <c r="B47" s="190"/>
+      <c r="C47" s="190"/>
+      <c r="D47" s="190"/>
+      <c r="E47" s="190"/>
+      <c r="F47" s="190"/>
+      <c r="G47" s="190"/>
       <c r="H47" s="101"/>
       <c r="M47" s="101"/>
       <c r="N47" s="101"/>
@@ -6171,16 +6176,16 @@
       <c r="B51" s="216" t="s">
         <v>0</v>
       </c>
-      <c r="C51" s="222" t="s">
+      <c r="C51" s="221" t="s">
         <v>1</v>
       </c>
       <c r="D51" s="216" t="s">
         <v>2</v>
       </c>
-      <c r="E51" s="220" t="s">
+      <c r="E51" s="225" t="s">
         <v>126</v>
       </c>
-      <c r="F51" s="220" t="s">
+      <c r="F51" s="225" t="s">
         <v>129</v>
       </c>
       <c r="G51" s="216" t="s">
@@ -6189,16 +6194,16 @@
       <c r="H51" s="216" t="s">
         <v>92</v>
       </c>
-      <c r="I51" s="218" t="s">
+      <c r="I51" s="224" t="s">
         <v>154</v>
       </c>
-      <c r="J51" s="218" t="s">
+      <c r="J51" s="224" t="s">
         <v>155</v>
       </c>
-      <c r="K51" s="218" t="s">
+      <c r="K51" s="224" t="s">
         <v>156</v>
       </c>
-      <c r="L51" s="223" t="s">
+      <c r="L51" s="218" t="s">
         <v>153</v>
       </c>
       <c r="M51" s="216" t="s">
@@ -6210,17 +6215,17 @@
       <c r="O51" s="216" t="s">
         <v>160</v>
       </c>
-      <c r="P51" s="222" t="s">
+      <c r="P51" s="221" t="s">
         <v>161</v>
       </c>
-      <c r="Q51" s="226" t="s">
+      <c r="Q51" s="222" t="s">
         <v>70</v>
       </c>
-      <c r="R51" s="227"/>
-      <c r="S51" s="226" t="s">
+      <c r="R51" s="223"/>
+      <c r="S51" s="222" t="s">
         <v>17</v>
       </c>
-      <c r="T51" s="227"/>
+      <c r="T51" s="223"/>
       <c r="U51" s="30" t="s">
         <v>69</v>
       </c>
@@ -6239,18 +6244,18 @@
       <c r="B52" s="217"/>
       <c r="C52" s="217"/>
       <c r="D52" s="217"/>
-      <c r="E52" s="221"/>
-      <c r="F52" s="221"/>
+      <c r="E52" s="226"/>
+      <c r="F52" s="226"/>
       <c r="G52" s="217"/>
       <c r="H52" s="217"/>
-      <c r="I52" s="218"/>
-      <c r="J52" s="218"/>
-      <c r="K52" s="218"/>
-      <c r="L52" s="224"/>
-      <c r="M52" s="225"/>
+      <c r="I52" s="224"/>
+      <c r="J52" s="224"/>
+      <c r="K52" s="224"/>
+      <c r="L52" s="219"/>
+      <c r="M52" s="220"/>
       <c r="N52" s="217"/>
-      <c r="O52" s="225"/>
-      <c r="P52" s="225"/>
+      <c r="O52" s="220"/>
+      <c r="P52" s="220"/>
       <c r="Q52" s="25" t="s">
         <v>74</v>
       </c>
@@ -7045,6 +7050,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
     <mergeCell ref="B36:G36"/>
     <mergeCell ref="B37:G37"/>
     <mergeCell ref="B38:G38"/>
@@ -7061,34 +7094,6 @@
     <mergeCell ref="A43:G43"/>
     <mergeCell ref="B44:G44"/>
     <mergeCell ref="B45:G45"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="J51:J52"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="B46:G46"/>
-    <mergeCell ref="B47:G47"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="A27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B30:G30"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations disablePrompts="1" count="3">
@@ -7295,10 +7300,10 @@
         <v>127</v>
       </c>
       <c r="B12" s="108"/>
-      <c r="C12" s="198" t="s">
+      <c r="C12" s="166" t="s">
         <v>147</v>
       </c>
-      <c r="D12" s="198"/>
+      <c r="D12" s="166"/>
       <c r="E12" s="84" t="s">
         <v>128</v>
       </c>
@@ -7315,8 +7320,8 @@
         <v>129</v>
       </c>
       <c r="B13" s="108"/>
-      <c r="C13" s="198"/>
-      <c r="D13" s="198"/>
+      <c r="C13" s="166"/>
+      <c r="D13" s="166"/>
       <c r="E13" s="47"/>
       <c r="F13" s="47"/>
       <c r="G13" s="46"/>
@@ -7354,28 +7359,28 @@
       <c r="F15" s="84"/>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" s="167" t="s">
+      <c r="A16" s="214" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="167"/>
-      <c r="C16" s="167"/>
-      <c r="D16" s="167"/>
-      <c r="E16" s="167"/>
-      <c r="F16" s="167"/>
-      <c r="G16" s="167"/>
+      <c r="B16" s="214"/>
+      <c r="C16" s="214"/>
+      <c r="D16" s="214"/>
+      <c r="E16" s="214"/>
+      <c r="F16" s="214"/>
+      <c r="G16" s="214"/>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" s="104" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="161" t="s">
+      <c r="B17" s="208" t="s">
         <v>134</v>
       </c>
-      <c r="C17" s="162"/>
-      <c r="D17" s="162"/>
-      <c r="E17" s="162"/>
-      <c r="F17" s="162"/>
-      <c r="G17" s="163"/>
+      <c r="C17" s="209"/>
+      <c r="D17" s="209"/>
+      <c r="E17" s="209"/>
+      <c r="F17" s="209"/>
+      <c r="G17" s="210"/>
       <c r="H17" s="94"/>
       <c r="I17" s="94"/>
       <c r="J17" s="94"/>
@@ -7390,12 +7395,12 @@
     </row>
     <row r="18" spans="1:20">
       <c r="A18" s="105"/>
-      <c r="B18" s="183"/>
-      <c r="C18" s="183"/>
-      <c r="D18" s="183"/>
-      <c r="E18" s="183"/>
-      <c r="F18" s="183"/>
-      <c r="G18" s="183"/>
+      <c r="B18" s="188"/>
+      <c r="C18" s="188"/>
+      <c r="D18" s="188"/>
+      <c r="E18" s="188"/>
+      <c r="F18" s="188"/>
+      <c r="G18" s="188"/>
       <c r="H18" s="101"/>
       <c r="I18" s="101"/>
       <c r="J18" s="101"/>
@@ -7410,12 +7415,12 @@
     </row>
     <row r="19" spans="1:20">
       <c r="A19" s="106"/>
-      <c r="B19" s="184"/>
-      <c r="C19" s="184"/>
-      <c r="D19" s="184"/>
-      <c r="E19" s="184"/>
-      <c r="F19" s="184"/>
-      <c r="G19" s="184"/>
+      <c r="B19" s="189"/>
+      <c r="C19" s="189"/>
+      <c r="D19" s="189"/>
+      <c r="E19" s="189"/>
+      <c r="F19" s="189"/>
+      <c r="G19" s="189"/>
       <c r="H19" s="101"/>
       <c r="I19" s="101"/>
       <c r="J19" s="101"/>
@@ -7430,12 +7435,12 @@
     </row>
     <row r="20" spans="1:20">
       <c r="A20" s="107"/>
-      <c r="B20" s="185"/>
-      <c r="C20" s="185"/>
-      <c r="D20" s="185"/>
-      <c r="E20" s="185"/>
-      <c r="F20" s="185"/>
-      <c r="G20" s="185"/>
+      <c r="B20" s="190"/>
+      <c r="C20" s="190"/>
+      <c r="D20" s="190"/>
+      <c r="E20" s="190"/>
+      <c r="F20" s="190"/>
+      <c r="G20" s="190"/>
       <c r="H20" s="101"/>
       <c r="I20" s="101"/>
       <c r="J20" s="101"/>
@@ -7454,29 +7459,29 @@
       <c r="M21" s="101"/>
     </row>
     <row r="22" spans="1:20">
-      <c r="A22" s="164" t="s">
+      <c r="A22" s="211" t="s">
         <v>143</v>
       </c>
-      <c r="B22" s="165"/>
-      <c r="C22" s="165"/>
-      <c r="D22" s="165"/>
-      <c r="E22" s="165"/>
-      <c r="F22" s="165"/>
-      <c r="G22" s="166"/>
+      <c r="B22" s="212"/>
+      <c r="C22" s="212"/>
+      <c r="D22" s="212"/>
+      <c r="E22" s="212"/>
+      <c r="F22" s="212"/>
+      <c r="G22" s="213"/>
       <c r="M22" s="101"/>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" s="104" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="168" t="s">
+      <c r="B23" s="180" t="s">
         <v>135</v>
       </c>
-      <c r="C23" s="168"/>
-      <c r="D23" s="168"/>
-      <c r="E23" s="168"/>
-      <c r="F23" s="168"/>
-      <c r="G23" s="168"/>
+      <c r="C23" s="180"/>
+      <c r="D23" s="180"/>
+      <c r="E23" s="180"/>
+      <c r="F23" s="180"/>
+      <c r="G23" s="180"/>
       <c r="H23" s="94"/>
       <c r="I23" s="94"/>
       <c r="J23" s="94"/>
@@ -7492,12 +7497,12 @@
     </row>
     <row r="24" spans="1:20">
       <c r="A24" s="105"/>
-      <c r="B24" s="169"/>
-      <c r="C24" s="169"/>
-      <c r="D24" s="169"/>
-      <c r="E24" s="169"/>
-      <c r="F24" s="169"/>
-      <c r="G24" s="169"/>
+      <c r="B24" s="181"/>
+      <c r="C24" s="181"/>
+      <c r="D24" s="181"/>
+      <c r="E24" s="181"/>
+      <c r="F24" s="181"/>
+      <c r="G24" s="181"/>
       <c r="H24" s="101"/>
       <c r="I24" s="101"/>
       <c r="J24" s="101"/>
@@ -7512,12 +7517,12 @@
     </row>
     <row r="25" spans="1:20">
       <c r="A25" s="106"/>
-      <c r="B25" s="192"/>
-      <c r="C25" s="192"/>
-      <c r="D25" s="192"/>
-      <c r="E25" s="192"/>
-      <c r="F25" s="192"/>
-      <c r="G25" s="192"/>
+      <c r="B25" s="178"/>
+      <c r="C25" s="178"/>
+      <c r="D25" s="178"/>
+      <c r="E25" s="178"/>
+      <c r="F25" s="178"/>
+      <c r="G25" s="178"/>
       <c r="H25" s="101"/>
       <c r="I25" s="101"/>
       <c r="J25" s="101"/>
@@ -7532,12 +7537,12 @@
     </row>
     <row r="26" spans="1:20">
       <c r="A26" s="107"/>
-      <c r="B26" s="202"/>
-      <c r="C26" s="202"/>
-      <c r="D26" s="202"/>
-      <c r="E26" s="202"/>
-      <c r="F26" s="202"/>
-      <c r="G26" s="202"/>
+      <c r="B26" s="179"/>
+      <c r="C26" s="179"/>
+      <c r="D26" s="179"/>
+      <c r="E26" s="179"/>
+      <c r="F26" s="179"/>
+      <c r="G26" s="179"/>
       <c r="H26" s="101"/>
       <c r="I26" s="101"/>
       <c r="J26" s="101"/>
@@ -7572,29 +7577,29 @@
       <c r="R27"/>
     </row>
     <row r="28" spans="1:20">
-      <c r="A28" s="164" t="s">
+      <c r="A28" s="211" t="s">
         <v>144</v>
       </c>
-      <c r="B28" s="165"/>
-      <c r="C28" s="165"/>
-      <c r="D28" s="165"/>
-      <c r="E28" s="165"/>
-      <c r="F28" s="165"/>
-      <c r="G28" s="166"/>
+      <c r="B28" s="212"/>
+      <c r="C28" s="212"/>
+      <c r="D28" s="212"/>
+      <c r="E28" s="212"/>
+      <c r="F28" s="212"/>
+      <c r="G28" s="213"/>
       <c r="M28" s="101"/>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" s="104" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="168" t="s">
+      <c r="B29" s="180" t="s">
         <v>136</v>
       </c>
-      <c r="C29" s="168"/>
-      <c r="D29" s="168"/>
-      <c r="E29" s="168"/>
-      <c r="F29" s="168"/>
-      <c r="G29" s="168"/>
+      <c r="C29" s="180"/>
+      <c r="D29" s="180"/>
+      <c r="E29" s="180"/>
+      <c r="F29" s="180"/>
+      <c r="G29" s="180"/>
       <c r="H29" s="94"/>
       <c r="I29" s="94"/>
       <c r="J29" s="94"/>
@@ -7610,11 +7615,11 @@
     </row>
     <row r="30" spans="1:20">
       <c r="A30" s="105"/>
-      <c r="B30" s="183"/>
-      <c r="C30" s="183"/>
-      <c r="D30" s="183"/>
-      <c r="E30" s="183"/>
-      <c r="F30" s="183"/>
+      <c r="B30" s="188"/>
+      <c r="C30" s="188"/>
+      <c r="D30" s="188"/>
+      <c r="E30" s="188"/>
+      <c r="F30" s="188"/>
       <c r="G30" s="229"/>
       <c r="H30" s="101"/>
       <c r="I30" s="101"/>
@@ -7631,11 +7636,11 @@
     </row>
     <row r="31" spans="1:20">
       <c r="A31" s="106"/>
-      <c r="B31" s="184"/>
-      <c r="C31" s="184"/>
-      <c r="D31" s="184"/>
-      <c r="E31" s="184"/>
-      <c r="F31" s="184"/>
+      <c r="B31" s="189"/>
+      <c r="C31" s="189"/>
+      <c r="D31" s="189"/>
+      <c r="E31" s="189"/>
+      <c r="F31" s="189"/>
       <c r="G31" s="230"/>
       <c r="H31" s="101"/>
       <c r="I31" s="101"/>
@@ -7651,11 +7656,11 @@
     </row>
     <row r="32" spans="1:20">
       <c r="A32" s="107"/>
-      <c r="B32" s="185"/>
-      <c r="C32" s="185"/>
-      <c r="D32" s="185"/>
-      <c r="E32" s="185"/>
-      <c r="F32" s="185"/>
+      <c r="B32" s="190"/>
+      <c r="C32" s="190"/>
+      <c r="D32" s="190"/>
+      <c r="E32" s="190"/>
+      <c r="F32" s="190"/>
       <c r="G32" s="231"/>
       <c r="H32" s="101"/>
       <c r="I32" s="101"/>
@@ -7718,40 +7723,40 @@
       <c r="S35" s="50"/>
     </row>
     <row r="36" spans="1:19" ht="15">
-      <c r="A36" s="220" t="s">
+      <c r="A36" s="225" t="s">
         <v>94</v>
       </c>
-      <c r="B36" s="220" t="s">
+      <c r="B36" s="225" t="s">
         <v>95</v>
       </c>
       <c r="C36" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="D36" s="220" t="s">
+      <c r="D36" s="225" t="s">
         <v>91</v>
       </c>
-      <c r="E36" s="220" t="s">
+      <c r="E36" s="225" t="s">
         <v>126</v>
       </c>
-      <c r="F36" s="220" t="s">
+      <c r="F36" s="225" t="s">
         <v>129</v>
       </c>
-      <c r="G36" s="220" t="s">
+      <c r="G36" s="225" t="s">
         <v>107</v>
       </c>
-      <c r="H36" s="220" t="s">
+      <c r="H36" s="225" t="s">
         <v>92</v>
       </c>
-      <c r="I36" s="218" t="s">
+      <c r="I36" s="224" t="s">
         <v>154</v>
       </c>
-      <c r="J36" s="218" t="s">
+      <c r="J36" s="224" t="s">
         <v>155</v>
       </c>
-      <c r="K36" s="218" t="s">
+      <c r="K36" s="224" t="s">
         <v>156</v>
       </c>
-      <c r="L36" s="223" t="s">
+      <c r="L36" s="218" t="s">
         <v>153</v>
       </c>
       <c r="M36" s="216" t="s">
@@ -7768,7 +7773,7 @@
       <c r="R36" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="S36" s="220" t="s">
+      <c r="S36" s="225" t="s">
         <v>101</v>
       </c>
     </row>
@@ -7779,15 +7784,15 @@
         <v>97</v>
       </c>
       <c r="D37" s="228"/>
-      <c r="E37" s="221"/>
-      <c r="F37" s="221"/>
+      <c r="E37" s="226"/>
+      <c r="F37" s="226"/>
       <c r="G37" s="228"/>
       <c r="H37" s="228"/>
-      <c r="I37" s="218"/>
-      <c r="J37" s="218"/>
-      <c r="K37" s="218"/>
-      <c r="L37" s="224"/>
-      <c r="M37" s="225"/>
+      <c r="I37" s="224"/>
+      <c r="J37" s="224"/>
+      <c r="K37" s="224"/>
+      <c r="L37" s="219"/>
+      <c r="M37" s="220"/>
       <c r="N37" s="54" t="s">
         <v>102</v>
       </c>
@@ -8311,22 +8316,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="L36:L37"/>
-    <mergeCell ref="B26:G26"/>
     <mergeCell ref="S36:S37"/>
     <mergeCell ref="A28:G28"/>
     <mergeCell ref="B29:G29"/>
@@ -8343,6 +8332,22 @@
     <mergeCell ref="M36:M37"/>
     <mergeCell ref="N36:O36"/>
     <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="L36:L37"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:G24"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">

--- a/blanco-meta/rest/Ng.xlsx
+++ b/blanco-meta/rest/Ng.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuji/projects/dapanda/dapanda-api-core/blanco-meta/rest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA88A4C-E40C-DB47-9680-8FCA1B5513C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31268760-22AE-C641-BA56-6607A1A15E8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4200" yWindow="1220" windowWidth="24600" windowHeight="14720" tabRatio="641" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="194">
   <si>
     <t>項目名</t>
     <rPh sb="0" eb="3">
@@ -2234,6 +2234,10 @@
   </si>
   <si>
     <t>ng</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>blanco.restgenerator.valueobject.ResponseHeader</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -3603,6 +3607,45 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3612,77 +3655,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="44" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3705,67 +3694,97 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="44" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="44" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3775,26 +3794,11 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="44" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4310,7 +4314,7 @@
   <dimension ref="A1:O70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -4353,122 +4357,122 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="162" t="s">
+      <c r="A5" s="212" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="162"/>
-      <c r="C5" s="162"/>
-      <c r="D5" s="162"/>
-      <c r="E5" s="162"/>
+      <c r="B5" s="212"/>
+      <c r="C5" s="212"/>
+      <c r="D5" s="212"/>
+      <c r="E5" s="212"/>
       <c r="F5" s="47"/>
       <c r="G5" s="47"/>
       <c r="H5" s="84"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="167" t="s">
+      <c r="A6" s="208" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="168"/>
-      <c r="C6" s="169"/>
-      <c r="D6" s="163" t="s">
+      <c r="B6" s="209"/>
+      <c r="C6" s="210"/>
+      <c r="D6" s="207" t="s">
         <v>191</v>
       </c>
-      <c r="E6" s="163"/>
+      <c r="E6" s="207"/>
       <c r="F6" s="47"/>
       <c r="G6" s="47"/>
       <c r="H6" s="84"/>
     </row>
     <row r="7" spans="1:8" ht="141" customHeight="1">
-      <c r="A7" s="170" t="s">
+      <c r="A7" s="211" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="170"/>
-      <c r="C7" s="170"/>
-      <c r="D7" s="164" t="s">
+      <c r="B7" s="211"/>
+      <c r="C7" s="211"/>
+      <c r="D7" s="213" t="s">
         <v>184</v>
       </c>
-      <c r="E7" s="165"/>
+      <c r="E7" s="214"/>
       <c r="F7" s="47"/>
       <c r="G7" s="47"/>
       <c r="H7" s="84"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="162" t="s">
+      <c r="A8" s="212" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="162"/>
-      <c r="C8" s="162"/>
-      <c r="D8" s="163" t="s">
+      <c r="B8" s="212"/>
+      <c r="C8" s="212"/>
+      <c r="D8" s="207" t="s">
         <v>192</v>
       </c>
-      <c r="E8" s="163"/>
+      <c r="E8" s="207"/>
       <c r="F8" s="84"/>
       <c r="G8" s="84"/>
       <c r="H8" s="84"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="162" t="s">
+      <c r="A9" s="212" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="162"/>
-      <c r="C9" s="162"/>
-      <c r="D9" s="163"/>
-      <c r="E9" s="163"/>
+      <c r="B9" s="212"/>
+      <c r="C9" s="212"/>
+      <c r="D9" s="207"/>
+      <c r="E9" s="207"/>
       <c r="F9" s="84"/>
       <c r="G9" s="84"/>
       <c r="H9" s="84"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="162" t="s">
+      <c r="A10" s="212" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="162"/>
-      <c r="C10" s="162"/>
-      <c r="D10" s="163" t="s">
+      <c r="B10" s="212"/>
+      <c r="C10" s="212"/>
+      <c r="D10" s="207" t="s">
         <v>185</v>
       </c>
-      <c r="E10" s="163"/>
+      <c r="E10" s="207"/>
       <c r="F10" s="84"/>
       <c r="G10" s="84"/>
       <c r="H10" s="84"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="162" t="s">
+      <c r="A11" s="212" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="162"/>
-      <c r="C11" s="162"/>
-      <c r="D11" s="163" t="s">
+      <c r="B11" s="212"/>
+      <c r="C11" s="212"/>
+      <c r="D11" s="207" t="s">
         <v>185</v>
       </c>
-      <c r="E11" s="163"/>
+      <c r="E11" s="207"/>
       <c r="F11" s="84"/>
       <c r="G11" s="84"/>
       <c r="H11" s="84"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="171" t="s">
+      <c r="A12" s="196" t="s">
         <v>127</v>
       </c>
-      <c r="B12" s="171"/>
-      <c r="C12" s="171"/>
-      <c r="D12" s="166" t="s">
+      <c r="B12" s="196"/>
+      <c r="C12" s="196"/>
+      <c r="D12" s="198" t="s">
         <v>147</v>
       </c>
-      <c r="E12" s="166"/>
+      <c r="E12" s="198"/>
       <c r="F12" s="84" t="s">
         <v>128</v>
       </c>
       <c r="G12" s="46"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="171" t="s">
+      <c r="A13" s="196" t="s">
         <v>129</v>
       </c>
-      <c r="B13" s="171"/>
-      <c r="C13" s="171"/>
-      <c r="D13" s="166"/>
-      <c r="E13" s="166"/>
+      <c r="B13" s="196"/>
+      <c r="C13" s="196"/>
+      <c r="D13" s="198"/>
+      <c r="E13" s="198"/>
       <c r="F13" s="46" t="s">
         <v>150</v>
       </c>
@@ -4476,41 +4480,43 @@
       <c r="H13" s="84"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="171" t="s">
+      <c r="A14" s="196" t="s">
         <v>157</v>
       </c>
-      <c r="B14" s="171"/>
-      <c r="C14" s="171"/>
-      <c r="D14" s="174" t="s">
+      <c r="B14" s="196"/>
+      <c r="C14" s="196"/>
+      <c r="D14" s="197" t="s">
         <v>170</v>
       </c>
-      <c r="E14" s="166"/>
+      <c r="E14" s="198"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="171" t="s">
+      <c r="A15" s="196" t="s">
         <v>158</v>
       </c>
-      <c r="B15" s="171"/>
-      <c r="C15" s="171"/>
-      <c r="D15" s="174"/>
-      <c r="E15" s="166"/>
+      <c r="B15" s="196"/>
+      <c r="C15" s="196"/>
+      <c r="D15" s="197" t="s">
+        <v>193</v>
+      </c>
+      <c r="E15" s="198"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="175" t="s">
+      <c r="A16" s="199" t="s">
         <v>110</v>
       </c>
-      <c r="B16" s="176"/>
-      <c r="C16" s="177"/>
+      <c r="B16" s="200"/>
+      <c r="C16" s="201"/>
       <c r="D16" s="103" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="183" t="s">
+      <c r="A17" s="204" t="s">
         <v>130</v>
       </c>
-      <c r="B17" s="184"/>
-      <c r="C17" s="185"/>
+      <c r="B17" s="205"/>
+      <c r="C17" s="206"/>
       <c r="D17" s="89"/>
       <c r="E17" t="s">
         <v>131</v>
@@ -4528,15 +4534,15 @@
       <c r="B18" s="6"/>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="205" t="s">
+      <c r="A19" s="158" t="s">
         <v>138</v>
       </c>
-      <c r="B19" s="206"/>
-      <c r="C19" s="206"/>
-      <c r="D19" s="206"/>
-      <c r="E19" s="206"/>
-      <c r="F19" s="206"/>
-      <c r="G19" s="207"/>
+      <c r="B19" s="159"/>
+      <c r="C19" s="159"/>
+      <c r="D19" s="159"/>
+      <c r="E19" s="159"/>
+      <c r="F19" s="159"/>
+      <c r="G19" s="160"/>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="90" t="s">
@@ -4584,28 +4590,28 @@
       <c r="C23"/>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="214" t="s">
+      <c r="A24" s="167" t="s">
         <v>139</v>
       </c>
-      <c r="B24" s="214"/>
-      <c r="C24" s="214"/>
-      <c r="D24" s="214"/>
-      <c r="E24" s="214"/>
-      <c r="F24" s="214"/>
-      <c r="G24" s="214"/>
+      <c r="B24" s="167"/>
+      <c r="C24" s="167"/>
+      <c r="D24" s="167"/>
+      <c r="E24" s="167"/>
+      <c r="F24" s="167"/>
+      <c r="G24" s="167"/>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="104" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="208" t="s">
+      <c r="B25" s="161" t="s">
         <v>134</v>
       </c>
-      <c r="C25" s="209"/>
-      <c r="D25" s="209"/>
-      <c r="E25" s="209"/>
-      <c r="F25" s="209"/>
-      <c r="G25" s="210"/>
+      <c r="C25" s="162"/>
+      <c r="D25" s="162"/>
+      <c r="E25" s="162"/>
+      <c r="F25" s="162"/>
+      <c r="G25" s="163"/>
       <c r="H25" s="94"/>
       <c r="I25" s="94"/>
       <c r="J25" s="94"/>
@@ -4616,12 +4622,12 @@
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="105"/>
-      <c r="B26" s="188"/>
-      <c r="C26" s="188"/>
-      <c r="D26" s="188"/>
-      <c r="E26" s="188"/>
-      <c r="F26" s="188"/>
-      <c r="G26" s="188"/>
+      <c r="B26" s="183"/>
+      <c r="C26" s="183"/>
+      <c r="D26" s="183"/>
+      <c r="E26" s="183"/>
+      <c r="F26" s="183"/>
+      <c r="G26" s="183"/>
       <c r="H26" s="101"/>
       <c r="I26" s="101"/>
       <c r="J26" s="101"/>
@@ -4632,12 +4638,12 @@
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="106"/>
-      <c r="B27" s="189"/>
-      <c r="C27" s="189"/>
-      <c r="D27" s="189"/>
-      <c r="E27" s="189"/>
-      <c r="F27" s="189"/>
-      <c r="G27" s="189"/>
+      <c r="B27" s="184"/>
+      <c r="C27" s="184"/>
+      <c r="D27" s="184"/>
+      <c r="E27" s="184"/>
+      <c r="F27" s="184"/>
+      <c r="G27" s="184"/>
       <c r="H27" s="101"/>
       <c r="I27" s="101"/>
       <c r="J27" s="101"/>
@@ -4648,12 +4654,12 @@
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="107"/>
-      <c r="B28" s="190"/>
-      <c r="C28" s="190"/>
-      <c r="D28" s="190"/>
-      <c r="E28" s="190"/>
-      <c r="F28" s="190"/>
-      <c r="G28" s="190"/>
+      <c r="B28" s="185"/>
+      <c r="C28" s="185"/>
+      <c r="D28" s="185"/>
+      <c r="E28" s="185"/>
+      <c r="F28" s="185"/>
+      <c r="G28" s="185"/>
       <c r="H28" s="101"/>
       <c r="I28" s="101"/>
       <c r="J28" s="101"/>
@@ -4666,28 +4672,28 @@
       <c r="C29"/>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="211" t="s">
+      <c r="A30" s="164" t="s">
         <v>140</v>
       </c>
-      <c r="B30" s="212"/>
-      <c r="C30" s="212"/>
-      <c r="D30" s="212"/>
-      <c r="E30" s="212"/>
-      <c r="F30" s="212"/>
-      <c r="G30" s="213"/>
+      <c r="B30" s="165"/>
+      <c r="C30" s="165"/>
+      <c r="D30" s="165"/>
+      <c r="E30" s="165"/>
+      <c r="F30" s="165"/>
+      <c r="G30" s="166"/>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="104" t="s">
         <v>68</v>
       </c>
-      <c r="B31" s="180" t="s">
+      <c r="B31" s="168" t="s">
         <v>135</v>
       </c>
-      <c r="C31" s="180"/>
-      <c r="D31" s="180"/>
-      <c r="E31" s="180"/>
-      <c r="F31" s="180"/>
-      <c r="G31" s="180"/>
+      <c r="C31" s="168"/>
+      <c r="D31" s="168"/>
+      <c r="E31" s="168"/>
+      <c r="F31" s="168"/>
+      <c r="G31" s="168"/>
       <c r="H31" s="94"/>
       <c r="I31" s="94"/>
       <c r="J31" s="94"/>
@@ -4698,12 +4704,12 @@
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="105"/>
-      <c r="B32" s="181"/>
-      <c r="C32" s="181"/>
-      <c r="D32" s="181"/>
-      <c r="E32" s="181"/>
-      <c r="F32" s="181"/>
-      <c r="G32" s="181"/>
+      <c r="B32" s="169"/>
+      <c r="C32" s="169"/>
+      <c r="D32" s="169"/>
+      <c r="E32" s="169"/>
+      <c r="F32" s="169"/>
+      <c r="G32" s="169"/>
       <c r="H32" s="101"/>
       <c r="I32" s="101"/>
       <c r="J32" s="101"/>
@@ -4714,12 +4720,12 @@
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="106"/>
-      <c r="B33" s="178"/>
-      <c r="C33" s="178"/>
-      <c r="D33" s="178"/>
-      <c r="E33" s="178"/>
-      <c r="F33" s="178"/>
-      <c r="G33" s="178"/>
+      <c r="B33" s="192"/>
+      <c r="C33" s="192"/>
+      <c r="D33" s="192"/>
+      <c r="E33" s="192"/>
+      <c r="F33" s="192"/>
+      <c r="G33" s="192"/>
       <c r="H33" s="101"/>
       <c r="I33" s="101"/>
       <c r="J33" s="101"/>
@@ -4730,12 +4736,12 @@
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="107"/>
-      <c r="B34" s="179"/>
-      <c r="C34" s="179"/>
-      <c r="D34" s="179"/>
-      <c r="E34" s="179"/>
-      <c r="F34" s="179"/>
-      <c r="G34" s="179"/>
+      <c r="B34" s="202"/>
+      <c r="C34" s="202"/>
+      <c r="D34" s="202"/>
+      <c r="E34" s="202"/>
+      <c r="F34" s="202"/>
+      <c r="G34" s="202"/>
       <c r="H34" s="101"/>
       <c r="I34" s="101"/>
       <c r="J34" s="101"/>
@@ -4760,28 +4766,28 @@
       <c r="M35"/>
     </row>
     <row r="36" spans="1:15">
-      <c r="A36" s="211" t="s">
+      <c r="A36" s="164" t="s">
         <v>141</v>
       </c>
-      <c r="B36" s="212"/>
-      <c r="C36" s="212"/>
-      <c r="D36" s="212"/>
-      <c r="E36" s="212"/>
-      <c r="F36" s="212"/>
-      <c r="G36" s="213"/>
+      <c r="B36" s="165"/>
+      <c r="C36" s="165"/>
+      <c r="D36" s="165"/>
+      <c r="E36" s="165"/>
+      <c r="F36" s="165"/>
+      <c r="G36" s="166"/>
     </row>
     <row r="37" spans="1:15">
       <c r="A37" s="104" t="s">
         <v>68</v>
       </c>
-      <c r="B37" s="180" t="s">
+      <c r="B37" s="168" t="s">
         <v>136</v>
       </c>
-      <c r="C37" s="180"/>
-      <c r="D37" s="180"/>
-      <c r="E37" s="180"/>
-      <c r="F37" s="180"/>
-      <c r="G37" s="180"/>
+      <c r="C37" s="168"/>
+      <c r="D37" s="168"/>
+      <c r="E37" s="168"/>
+      <c r="F37" s="168"/>
+      <c r="G37" s="168"/>
       <c r="H37" s="94"/>
       <c r="I37" s="94"/>
       <c r="J37" s="94"/>
@@ -4794,12 +4800,12 @@
       <c r="A38" s="105">
         <v>1</v>
       </c>
-      <c r="B38" s="181"/>
-      <c r="C38" s="181"/>
-      <c r="D38" s="181"/>
-      <c r="E38" s="181"/>
-      <c r="F38" s="181"/>
-      <c r="G38" s="182"/>
+      <c r="B38" s="169"/>
+      <c r="C38" s="169"/>
+      <c r="D38" s="169"/>
+      <c r="E38" s="169"/>
+      <c r="F38" s="169"/>
+      <c r="G38" s="203"/>
       <c r="H38" s="101"/>
       <c r="I38" s="101"/>
       <c r="J38" s="101"/>
@@ -4810,12 +4816,12 @@
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="106"/>
-      <c r="B39" s="178"/>
-      <c r="C39" s="178"/>
-      <c r="D39" s="178"/>
-      <c r="E39" s="178"/>
-      <c r="F39" s="178"/>
-      <c r="G39" s="197"/>
+      <c r="B39" s="192"/>
+      <c r="C39" s="192"/>
+      <c r="D39" s="192"/>
+      <c r="E39" s="192"/>
+      <c r="F39" s="192"/>
+      <c r="G39" s="193"/>
       <c r="H39" s="101"/>
       <c r="I39" s="101"/>
       <c r="J39" s="101"/>
@@ -4826,12 +4832,12 @@
     </row>
     <row r="40" spans="1:15">
       <c r="A40" s="141"/>
-      <c r="B40" s="172"/>
-      <c r="C40" s="172"/>
-      <c r="D40" s="172"/>
-      <c r="E40" s="172"/>
-      <c r="F40" s="172"/>
-      <c r="G40" s="173"/>
+      <c r="B40" s="194"/>
+      <c r="C40" s="194"/>
+      <c r="D40" s="194"/>
+      <c r="E40" s="194"/>
+      <c r="F40" s="194"/>
+      <c r="G40" s="195"/>
       <c r="H40" s="101"/>
       <c r="I40" s="101"/>
       <c r="J40" s="101"/>
@@ -4857,15 +4863,15 @@
       <c r="O41" s="150"/>
     </row>
     <row r="42" spans="1:15">
-      <c r="A42" s="204" t="s">
+      <c r="A42" s="157" t="s">
         <v>177</v>
       </c>
-      <c r="B42" s="204"/>
-      <c r="C42" s="204"/>
-      <c r="D42" s="204"/>
-      <c r="E42" s="204"/>
-      <c r="F42" s="204"/>
-      <c r="G42" s="204"/>
+      <c r="B42" s="157"/>
+      <c r="C42" s="157"/>
+      <c r="D42" s="157"/>
+      <c r="E42" s="157"/>
+      <c r="F42" s="157"/>
+      <c r="G42" s="157"/>
       <c r="H42"/>
       <c r="I42"/>
       <c r="J42"/>
@@ -4954,230 +4960,260 @@
       <c r="G48" s="121"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="198" t="s">
+      <c r="A49" s="175" t="s">
         <v>65</v>
       </c>
-      <c r="B49" s="199"/>
-      <c r="C49" s="198" t="s">
+      <c r="B49" s="176"/>
+      <c r="C49" s="175" t="s">
         <v>66</v>
       </c>
-      <c r="D49" s="202"/>
-      <c r="E49" s="203"/>
+      <c r="D49" s="179"/>
+      <c r="E49" s="180"/>
       <c r="F49" s="122" t="s">
         <v>151</v>
       </c>
       <c r="G49" s="121"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="200"/>
-      <c r="B50" s="201"/>
-      <c r="C50" s="191"/>
-      <c r="D50" s="192"/>
-      <c r="E50" s="193"/>
+      <c r="A50" s="177"/>
+      <c r="B50" s="178"/>
+      <c r="C50" s="186"/>
+      <c r="D50" s="187"/>
+      <c r="E50" s="188"/>
       <c r="F50" s="3"/>
       <c r="G50" s="43"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="157"/>
-      <c r="B51" s="158"/>
-      <c r="C51" s="159"/>
-      <c r="D51" s="160"/>
-      <c r="E51" s="161"/>
+      <c r="A51" s="170"/>
+      <c r="B51" s="171"/>
+      <c r="C51" s="172"/>
+      <c r="D51" s="173"/>
+      <c r="E51" s="174"/>
       <c r="F51" s="3"/>
       <c r="G51" s="43"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="157"/>
-      <c r="B52" s="158"/>
-      <c r="C52" s="159"/>
-      <c r="D52" s="160"/>
-      <c r="E52" s="161"/>
+      <c r="A52" s="170"/>
+      <c r="B52" s="171"/>
+      <c r="C52" s="172"/>
+      <c r="D52" s="173"/>
+      <c r="E52" s="174"/>
       <c r="F52" s="3"/>
       <c r="G52" s="43"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="157"/>
-      <c r="B53" s="158"/>
-      <c r="C53" s="159"/>
-      <c r="D53" s="160"/>
-      <c r="E53" s="161"/>
+      <c r="A53" s="170"/>
+      <c r="B53" s="171"/>
+      <c r="C53" s="172"/>
+      <c r="D53" s="173"/>
+      <c r="E53" s="174"/>
       <c r="F53" s="3"/>
       <c r="G53" s="43"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="157"/>
-      <c r="B54" s="158"/>
-      <c r="C54" s="159"/>
-      <c r="D54" s="160"/>
-      <c r="E54" s="161"/>
+      <c r="A54" s="170"/>
+      <c r="B54" s="171"/>
+      <c r="C54" s="172"/>
+      <c r="D54" s="173"/>
+      <c r="E54" s="174"/>
       <c r="F54" s="3"/>
       <c r="G54" s="43"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="157"/>
-      <c r="B55" s="158"/>
-      <c r="C55" s="159"/>
-      <c r="D55" s="160"/>
-      <c r="E55" s="161"/>
+      <c r="A55" s="170"/>
+      <c r="B55" s="171"/>
+      <c r="C55" s="172"/>
+      <c r="D55" s="173"/>
+      <c r="E55" s="174"/>
       <c r="F55" s="3"/>
       <c r="G55" s="43"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="157"/>
-      <c r="B56" s="158"/>
-      <c r="C56" s="159"/>
-      <c r="D56" s="160"/>
-      <c r="E56" s="161"/>
+      <c r="A56" s="170"/>
+      <c r="B56" s="171"/>
+      <c r="C56" s="172"/>
+      <c r="D56" s="173"/>
+      <c r="E56" s="174"/>
       <c r="F56" s="3"/>
       <c r="G56" s="43"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="157"/>
-      <c r="B57" s="158"/>
-      <c r="C57" s="159"/>
-      <c r="D57" s="160"/>
-      <c r="E57" s="161"/>
+      <c r="A57" s="170"/>
+      <c r="B57" s="171"/>
+      <c r="C57" s="172"/>
+      <c r="D57" s="173"/>
+      <c r="E57" s="174"/>
       <c r="F57" s="3"/>
       <c r="G57" s="43"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="157"/>
-      <c r="B58" s="158"/>
-      <c r="C58" s="159"/>
-      <c r="D58" s="160"/>
-      <c r="E58" s="161"/>
+      <c r="A58" s="170"/>
+      <c r="B58" s="171"/>
+      <c r="C58" s="172"/>
+      <c r="D58" s="173"/>
+      <c r="E58" s="174"/>
       <c r="F58" s="3"/>
       <c r="G58" s="43"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="157"/>
-      <c r="B59" s="158"/>
-      <c r="C59" s="159"/>
-      <c r="D59" s="160"/>
-      <c r="E59" s="161"/>
+      <c r="A59" s="170"/>
+      <c r="B59" s="171"/>
+      <c r="C59" s="172"/>
+      <c r="D59" s="173"/>
+      <c r="E59" s="174"/>
       <c r="F59" s="3"/>
       <c r="G59" s="43"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="157"/>
-      <c r="B60" s="158"/>
-      <c r="C60" s="159"/>
-      <c r="D60" s="160"/>
-      <c r="E60" s="161"/>
+      <c r="A60" s="170"/>
+      <c r="B60" s="171"/>
+      <c r="C60" s="172"/>
+      <c r="D60" s="173"/>
+      <c r="E60" s="174"/>
       <c r="F60" s="3"/>
       <c r="G60" s="43"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="157"/>
-      <c r="B61" s="158"/>
-      <c r="C61" s="159"/>
-      <c r="D61" s="160"/>
-      <c r="E61" s="161"/>
+      <c r="A61" s="170"/>
+      <c r="B61" s="171"/>
+      <c r="C61" s="172"/>
+      <c r="D61" s="173"/>
+      <c r="E61" s="174"/>
       <c r="F61" s="3"/>
       <c r="G61" s="43"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="157"/>
-      <c r="B62" s="158"/>
-      <c r="C62" s="159"/>
-      <c r="D62" s="160"/>
-      <c r="E62" s="161"/>
+      <c r="A62" s="170"/>
+      <c r="B62" s="171"/>
+      <c r="C62" s="172"/>
+      <c r="D62" s="173"/>
+      <c r="E62" s="174"/>
       <c r="F62" s="3"/>
       <c r="G62" s="43"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="157"/>
-      <c r="B63" s="158"/>
-      <c r="C63" s="159"/>
-      <c r="D63" s="160"/>
-      <c r="E63" s="161"/>
+      <c r="A63" s="170"/>
+      <c r="B63" s="171"/>
+      <c r="C63" s="172"/>
+      <c r="D63" s="173"/>
+      <c r="E63" s="174"/>
       <c r="F63" s="3"/>
       <c r="G63" s="43"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="157"/>
-      <c r="B64" s="158"/>
-      <c r="C64" s="159"/>
-      <c r="D64" s="160"/>
-      <c r="E64" s="161"/>
+      <c r="A64" s="170"/>
+      <c r="B64" s="171"/>
+      <c r="C64" s="172"/>
+      <c r="D64" s="173"/>
+      <c r="E64" s="174"/>
       <c r="F64" s="3"/>
       <c r="G64" s="43"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="157"/>
-      <c r="B65" s="158"/>
-      <c r="C65" s="159"/>
-      <c r="D65" s="160"/>
-      <c r="E65" s="161"/>
+      <c r="A65" s="170"/>
+      <c r="B65" s="171"/>
+      <c r="C65" s="172"/>
+      <c r="D65" s="173"/>
+      <c r="E65" s="174"/>
       <c r="F65" s="3"/>
       <c r="G65" s="43"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="157"/>
-      <c r="B66" s="158"/>
-      <c r="C66" s="159"/>
-      <c r="D66" s="160"/>
-      <c r="E66" s="161"/>
+      <c r="A66" s="170"/>
+      <c r="B66" s="171"/>
+      <c r="C66" s="172"/>
+      <c r="D66" s="173"/>
+      <c r="E66" s="174"/>
       <c r="F66" s="3"/>
       <c r="G66" s="43"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="157"/>
-      <c r="B67" s="158"/>
-      <c r="C67" s="159"/>
-      <c r="D67" s="160"/>
-      <c r="E67" s="161"/>
+      <c r="A67" s="170"/>
+      <c r="B67" s="171"/>
+      <c r="C67" s="172"/>
+      <c r="D67" s="173"/>
+      <c r="E67" s="174"/>
       <c r="F67" s="3"/>
       <c r="G67" s="43"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="157"/>
-      <c r="B68" s="158"/>
-      <c r="C68" s="159"/>
-      <c r="D68" s="160"/>
-      <c r="E68" s="161"/>
+      <c r="A68" s="170"/>
+      <c r="B68" s="171"/>
+      <c r="C68" s="172"/>
+      <c r="D68" s="173"/>
+      <c r="E68" s="174"/>
       <c r="F68" s="3"/>
       <c r="G68" s="43"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="157"/>
-      <c r="B69" s="158"/>
-      <c r="C69" s="159"/>
-      <c r="D69" s="160"/>
-      <c r="E69" s="161"/>
+      <c r="A69" s="170"/>
+      <c r="B69" s="171"/>
+      <c r="C69" s="172"/>
+      <c r="D69" s="173"/>
+      <c r="E69" s="174"/>
       <c r="F69" s="3"/>
       <c r="G69" s="43"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="186"/>
-      <c r="B70" s="187"/>
-      <c r="C70" s="194"/>
-      <c r="D70" s="195"/>
-      <c r="E70" s="196"/>
+      <c r="A70" s="181"/>
+      <c r="B70" s="182"/>
+      <c r="C70" s="189"/>
+      <c r="D70" s="190"/>
+      <c r="E70" s="191"/>
       <c r="F70" s="112"/>
       <c r="G70" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="A42:G42"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A24:G24"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="C59:E59"/>
     <mergeCell ref="A70:B70"/>
     <mergeCell ref="B26:G26"/>
     <mergeCell ref="B27:G27"/>
@@ -5194,55 +5230,25 @@
     <mergeCell ref="C52:E52"/>
     <mergeCell ref="C55:E55"/>
     <mergeCell ref="B39:G39"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="C67:E67"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A42:G42"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A24:G24"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:G32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="2">
@@ -5442,10 +5448,10 @@
         <v>127</v>
       </c>
       <c r="B15" s="127"/>
-      <c r="C15" s="166" t="s">
+      <c r="C15" s="198" t="s">
         <v>147</v>
       </c>
-      <c r="D15" s="166"/>
+      <c r="D15" s="198"/>
       <c r="E15" s="1" t="s">
         <v>128</v>
       </c>
@@ -5460,8 +5466,8 @@
         <v>129</v>
       </c>
       <c r="B16" s="127"/>
-      <c r="C16" s="227"/>
-      <c r="D16" s="166"/>
+      <c r="C16" s="215"/>
+      <c r="D16" s="198"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
@@ -5473,8 +5479,8 @@
         <v>165</v>
       </c>
       <c r="B17" s="127"/>
-      <c r="C17" s="227"/>
-      <c r="D17" s="166"/>
+      <c r="C17" s="215"/>
+      <c r="D17" s="198"/>
       <c r="I17"/>
       <c r="J17"/>
       <c r="K17"/>
@@ -5538,15 +5544,15 @@
       <c r="AA20"/>
     </row>
     <row r="21" spans="1:27">
-      <c r="A21" s="214" t="s">
+      <c r="A21" s="167" t="s">
         <v>142</v>
       </c>
-      <c r="B21" s="214"/>
-      <c r="C21" s="214"/>
-      <c r="D21" s="214"/>
-      <c r="E21" s="214"/>
-      <c r="F21" s="214"/>
-      <c r="G21" s="214"/>
+      <c r="B21" s="167"/>
+      <c r="C21" s="167"/>
+      <c r="D21" s="167"/>
+      <c r="E21" s="167"/>
+      <c r="F21" s="167"/>
+      <c r="G21" s="167"/>
       <c r="I21"/>
       <c r="J21"/>
       <c r="K21"/>
@@ -5557,14 +5563,14 @@
       <c r="A22" s="104" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="208" t="s">
+      <c r="B22" s="161" t="s">
         <v>134</v>
       </c>
-      <c r="C22" s="209"/>
-      <c r="D22" s="209"/>
-      <c r="E22" s="209"/>
-      <c r="F22" s="209"/>
-      <c r="G22" s="210"/>
+      <c r="C22" s="162"/>
+      <c r="D22" s="162"/>
+      <c r="E22" s="162"/>
+      <c r="F22" s="162"/>
+      <c r="G22" s="163"/>
       <c r="H22" s="94"/>
       <c r="I22"/>
       <c r="J22"/>
@@ -5582,12 +5588,12 @@
     </row>
     <row r="23" spans="1:27">
       <c r="A23" s="105"/>
-      <c r="B23" s="188"/>
-      <c r="C23" s="188"/>
-      <c r="D23" s="188"/>
-      <c r="E23" s="188"/>
-      <c r="F23" s="188"/>
-      <c r="G23" s="188"/>
+      <c r="B23" s="183"/>
+      <c r="C23" s="183"/>
+      <c r="D23" s="183"/>
+      <c r="E23" s="183"/>
+      <c r="F23" s="183"/>
+      <c r="G23" s="183"/>
       <c r="H23" s="101"/>
       <c r="I23"/>
       <c r="J23"/>
@@ -5605,12 +5611,12 @@
     </row>
     <row r="24" spans="1:27">
       <c r="A24" s="106"/>
-      <c r="B24" s="189"/>
-      <c r="C24" s="189"/>
-      <c r="D24" s="189"/>
-      <c r="E24" s="189"/>
-      <c r="F24" s="189"/>
-      <c r="G24" s="189"/>
+      <c r="B24" s="184"/>
+      <c r="C24" s="184"/>
+      <c r="D24" s="184"/>
+      <c r="E24" s="184"/>
+      <c r="F24" s="184"/>
+      <c r="G24" s="184"/>
       <c r="H24" s="101"/>
       <c r="M24" s="101"/>
       <c r="N24" s="101"/>
@@ -5623,12 +5629,12 @@
     </row>
     <row r="25" spans="1:27">
       <c r="A25" s="107"/>
-      <c r="B25" s="190"/>
-      <c r="C25" s="190"/>
-      <c r="D25" s="190"/>
-      <c r="E25" s="190"/>
-      <c r="F25" s="190"/>
-      <c r="G25" s="190"/>
+      <c r="B25" s="185"/>
+      <c r="C25" s="185"/>
+      <c r="D25" s="185"/>
+      <c r="E25" s="185"/>
+      <c r="F25" s="185"/>
+      <c r="G25" s="185"/>
       <c r="H25" s="101"/>
       <c r="I25" s="94"/>
       <c r="J25" s="94"/>
@@ -5653,15 +5659,15 @@
       <c r="AA26" s="94"/>
     </row>
     <row r="27" spans="1:27">
-      <c r="A27" s="211" t="s">
+      <c r="A27" s="164" t="s">
         <v>143</v>
       </c>
-      <c r="B27" s="212"/>
-      <c r="C27" s="212"/>
-      <c r="D27" s="212"/>
-      <c r="E27" s="212"/>
-      <c r="F27" s="212"/>
-      <c r="G27" s="213"/>
+      <c r="B27" s="165"/>
+      <c r="C27" s="165"/>
+      <c r="D27" s="165"/>
+      <c r="E27" s="165"/>
+      <c r="F27" s="165"/>
+      <c r="G27" s="166"/>
       <c r="I27" s="94"/>
       <c r="J27" s="94"/>
       <c r="K27" s="94"/>
@@ -5672,14 +5678,14 @@
       <c r="A28" s="104" t="s">
         <v>68</v>
       </c>
-      <c r="B28" s="180" t="s">
+      <c r="B28" s="168" t="s">
         <v>135</v>
       </c>
-      <c r="C28" s="180"/>
-      <c r="D28" s="180"/>
-      <c r="E28" s="180"/>
-      <c r="F28" s="180"/>
-      <c r="G28" s="180"/>
+      <c r="C28" s="168"/>
+      <c r="D28" s="168"/>
+      <c r="E28" s="168"/>
+      <c r="F28" s="168"/>
+      <c r="G28" s="168"/>
       <c r="H28" s="94"/>
       <c r="I28"/>
       <c r="J28"/>
@@ -5699,14 +5705,14 @@
       <c r="A29" s="105">
         <v>1</v>
       </c>
-      <c r="B29" s="181" t="s">
+      <c r="B29" s="169" t="s">
         <v>173</v>
       </c>
-      <c r="C29" s="181"/>
-      <c r="D29" s="181"/>
-      <c r="E29" s="181"/>
-      <c r="F29" s="181"/>
-      <c r="G29" s="181"/>
+      <c r="C29" s="169"/>
+      <c r="D29" s="169"/>
+      <c r="E29" s="169"/>
+      <c r="F29" s="169"/>
+      <c r="G29" s="169"/>
       <c r="H29" s="101"/>
       <c r="M29" s="101"/>
       <c r="N29" s="101"/>
@@ -5721,14 +5727,14 @@
       <c r="A30" s="106">
         <v>2</v>
       </c>
-      <c r="B30" s="181" t="s">
+      <c r="B30" s="169" t="s">
         <v>172</v>
       </c>
-      <c r="C30" s="181"/>
-      <c r="D30" s="181"/>
-      <c r="E30" s="181"/>
-      <c r="F30" s="181"/>
-      <c r="G30" s="181"/>
+      <c r="C30" s="169"/>
+      <c r="D30" s="169"/>
+      <c r="E30" s="169"/>
+      <c r="F30" s="169"/>
+      <c r="G30" s="169"/>
       <c r="H30" s="101"/>
       <c r="I30" s="94"/>
       <c r="J30" s="94"/>
@@ -5792,12 +5798,12 @@
     </row>
     <row r="33" spans="1:28">
       <c r="A33" s="107"/>
-      <c r="B33" s="179"/>
-      <c r="C33" s="179"/>
-      <c r="D33" s="179"/>
-      <c r="E33" s="179"/>
-      <c r="F33" s="179"/>
-      <c r="G33" s="179"/>
+      <c r="B33" s="202"/>
+      <c r="C33" s="202"/>
+      <c r="D33" s="202"/>
+      <c r="E33" s="202"/>
+      <c r="F33" s="202"/>
+      <c r="G33" s="202"/>
       <c r="H33" s="101"/>
       <c r="I33" s="101"/>
       <c r="J33" s="101"/>
@@ -5837,15 +5843,15 @@
       <c r="AB34" s="101"/>
     </row>
     <row r="35" spans="1:28">
-      <c r="A35" s="211" t="s">
+      <c r="A35" s="164" t="s">
         <v>164</v>
       </c>
-      <c r="B35" s="212"/>
-      <c r="C35" s="212"/>
-      <c r="D35" s="212"/>
-      <c r="E35" s="212"/>
-      <c r="F35" s="212"/>
-      <c r="G35" s="213"/>
+      <c r="B35" s="165"/>
+      <c r="C35" s="165"/>
+      <c r="D35" s="165"/>
+      <c r="E35" s="165"/>
+      <c r="F35" s="165"/>
+      <c r="G35" s="166"/>
       <c r="I35" s="94"/>
       <c r="J35" s="94"/>
       <c r="K35" s="94"/>
@@ -5857,14 +5863,14 @@
       <c r="A36" s="104" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="180" t="s">
+      <c r="B36" s="168" t="s">
         <v>135</v>
       </c>
-      <c r="C36" s="180"/>
-      <c r="D36" s="180"/>
-      <c r="E36" s="180"/>
-      <c r="F36" s="180"/>
-      <c r="G36" s="180"/>
+      <c r="C36" s="168"/>
+      <c r="D36" s="168"/>
+      <c r="E36" s="168"/>
+      <c r="F36" s="168"/>
+      <c r="G36" s="168"/>
       <c r="H36" s="94"/>
       <c r="I36"/>
       <c r="J36"/>
@@ -5885,12 +5891,12 @@
       <c r="A37" s="105">
         <v>1</v>
       </c>
-      <c r="B37" s="181"/>
-      <c r="C37" s="181"/>
-      <c r="D37" s="181"/>
-      <c r="E37" s="181"/>
-      <c r="F37" s="181"/>
-      <c r="G37" s="181"/>
+      <c r="B37" s="169"/>
+      <c r="C37" s="169"/>
+      <c r="D37" s="169"/>
+      <c r="E37" s="169"/>
+      <c r="F37" s="169"/>
+      <c r="G37" s="169"/>
       <c r="H37" s="101"/>
       <c r="M37" s="101"/>
       <c r="N37" s="101"/>
@@ -5905,12 +5911,12 @@
       <c r="A38" s="106">
         <v>2</v>
       </c>
-      <c r="B38" s="215"/>
-      <c r="C38" s="215"/>
-      <c r="D38" s="215"/>
-      <c r="E38" s="215"/>
-      <c r="F38" s="215"/>
-      <c r="G38" s="215"/>
+      <c r="B38" s="219"/>
+      <c r="C38" s="219"/>
+      <c r="D38" s="219"/>
+      <c r="E38" s="219"/>
+      <c r="F38" s="219"/>
+      <c r="G38" s="219"/>
       <c r="H38" s="101"/>
       <c r="I38" s="94"/>
       <c r="J38" s="94"/>
@@ -5929,12 +5935,12 @@
     </row>
     <row r="39" spans="1:28">
       <c r="A39" s="106"/>
-      <c r="B39" s="215"/>
-      <c r="C39" s="215"/>
-      <c r="D39" s="215"/>
-      <c r="E39" s="215"/>
-      <c r="F39" s="215"/>
-      <c r="G39" s="215"/>
+      <c r="B39" s="219"/>
+      <c r="C39" s="219"/>
+      <c r="D39" s="219"/>
+      <c r="E39" s="219"/>
+      <c r="F39" s="219"/>
+      <c r="G39" s="219"/>
       <c r="H39" s="101"/>
       <c r="I39" s="94"/>
       <c r="J39" s="94"/>
@@ -5953,12 +5959,12 @@
     </row>
     <row r="40" spans="1:28">
       <c r="A40" s="106"/>
-      <c r="B40" s="215"/>
-      <c r="C40" s="215"/>
-      <c r="D40" s="215"/>
-      <c r="E40" s="215"/>
-      <c r="F40" s="215"/>
-      <c r="G40" s="215"/>
+      <c r="B40" s="219"/>
+      <c r="C40" s="219"/>
+      <c r="D40" s="219"/>
+      <c r="E40" s="219"/>
+      <c r="F40" s="219"/>
+      <c r="G40" s="219"/>
       <c r="H40" s="101"/>
       <c r="I40" s="94"/>
       <c r="J40" s="94"/>
@@ -5977,12 +5983,12 @@
     </row>
     <row r="41" spans="1:28">
       <c r="A41" s="107"/>
-      <c r="B41" s="179"/>
-      <c r="C41" s="179"/>
-      <c r="D41" s="179"/>
-      <c r="E41" s="179"/>
-      <c r="F41" s="179"/>
-      <c r="G41" s="179"/>
+      <c r="B41" s="202"/>
+      <c r="C41" s="202"/>
+      <c r="D41" s="202"/>
+      <c r="E41" s="202"/>
+      <c r="F41" s="202"/>
+      <c r="G41" s="202"/>
       <c r="H41" s="101"/>
       <c r="I41" s="101"/>
       <c r="J41" s="101"/>
@@ -6022,15 +6028,15 @@
       <c r="AA42" s="101"/>
     </row>
     <row r="43" spans="1:28">
-      <c r="A43" s="211" t="s">
+      <c r="A43" s="164" t="s">
         <v>144</v>
       </c>
-      <c r="B43" s="212"/>
-      <c r="C43" s="212"/>
-      <c r="D43" s="212"/>
-      <c r="E43" s="212"/>
-      <c r="F43" s="212"/>
-      <c r="G43" s="213"/>
+      <c r="B43" s="165"/>
+      <c r="C43" s="165"/>
+      <c r="D43" s="165"/>
+      <c r="E43" s="165"/>
+      <c r="F43" s="165"/>
+      <c r="G43" s="166"/>
       <c r="I43" s="101"/>
       <c r="J43" s="101"/>
       <c r="K43" s="101"/>
@@ -6041,14 +6047,14 @@
       <c r="A44" s="104" t="s">
         <v>68</v>
       </c>
-      <c r="B44" s="180" t="s">
+      <c r="B44" s="168" t="s">
         <v>136</v>
       </c>
-      <c r="C44" s="180"/>
-      <c r="D44" s="180"/>
-      <c r="E44" s="180"/>
-      <c r="F44" s="180"/>
-      <c r="G44" s="180"/>
+      <c r="C44" s="168"/>
+      <c r="D44" s="168"/>
+      <c r="E44" s="168"/>
+      <c r="F44" s="168"/>
+      <c r="G44" s="168"/>
       <c r="H44" s="94"/>
       <c r="I44"/>
       <c r="J44"/>
@@ -6066,12 +6072,12 @@
     </row>
     <row r="45" spans="1:28">
       <c r="A45" s="105"/>
-      <c r="B45" s="188"/>
-      <c r="C45" s="188"/>
-      <c r="D45" s="188"/>
-      <c r="E45" s="188"/>
-      <c r="F45" s="188"/>
-      <c r="G45" s="188"/>
+      <c r="B45" s="183"/>
+      <c r="C45" s="183"/>
+      <c r="D45" s="183"/>
+      <c r="E45" s="183"/>
+      <c r="F45" s="183"/>
+      <c r="G45" s="183"/>
       <c r="H45" s="101"/>
       <c r="M45" s="101"/>
       <c r="N45" s="101"/>
@@ -6084,12 +6090,12 @@
     </row>
     <row r="46" spans="1:28">
       <c r="A46" s="106"/>
-      <c r="B46" s="189"/>
-      <c r="C46" s="189"/>
-      <c r="D46" s="189"/>
-      <c r="E46" s="189"/>
-      <c r="F46" s="189"/>
-      <c r="G46" s="189"/>
+      <c r="B46" s="184"/>
+      <c r="C46" s="184"/>
+      <c r="D46" s="184"/>
+      <c r="E46" s="184"/>
+      <c r="F46" s="184"/>
+      <c r="G46" s="184"/>
       <c r="H46" s="101"/>
       <c r="M46" s="101"/>
       <c r="N46" s="101"/>
@@ -6102,12 +6108,12 @@
     </row>
     <row r="47" spans="1:28">
       <c r="A47" s="107"/>
-      <c r="B47" s="190"/>
-      <c r="C47" s="190"/>
-      <c r="D47" s="190"/>
-      <c r="E47" s="190"/>
-      <c r="F47" s="190"/>
-      <c r="G47" s="190"/>
+      <c r="B47" s="185"/>
+      <c r="C47" s="185"/>
+      <c r="D47" s="185"/>
+      <c r="E47" s="185"/>
+      <c r="F47" s="185"/>
+      <c r="G47" s="185"/>
       <c r="H47" s="101"/>
       <c r="M47" s="101"/>
       <c r="N47" s="101"/>
@@ -6176,16 +6182,16 @@
       <c r="B51" s="216" t="s">
         <v>0</v>
       </c>
-      <c r="C51" s="221" t="s">
+      <c r="C51" s="222" t="s">
         <v>1</v>
       </c>
       <c r="D51" s="216" t="s">
         <v>2</v>
       </c>
-      <c r="E51" s="225" t="s">
+      <c r="E51" s="220" t="s">
         <v>126</v>
       </c>
-      <c r="F51" s="225" t="s">
+      <c r="F51" s="220" t="s">
         <v>129</v>
       </c>
       <c r="G51" s="216" t="s">
@@ -6194,16 +6200,16 @@
       <c r="H51" s="216" t="s">
         <v>92</v>
       </c>
-      <c r="I51" s="224" t="s">
+      <c r="I51" s="218" t="s">
         <v>154</v>
       </c>
-      <c r="J51" s="224" t="s">
+      <c r="J51" s="218" t="s">
         <v>155</v>
       </c>
-      <c r="K51" s="224" t="s">
+      <c r="K51" s="218" t="s">
         <v>156</v>
       </c>
-      <c r="L51" s="218" t="s">
+      <c r="L51" s="223" t="s">
         <v>153</v>
       </c>
       <c r="M51" s="216" t="s">
@@ -6215,17 +6221,17 @@
       <c r="O51" s="216" t="s">
         <v>160</v>
       </c>
-      <c r="P51" s="221" t="s">
+      <c r="P51" s="222" t="s">
         <v>161</v>
       </c>
-      <c r="Q51" s="222" t="s">
+      <c r="Q51" s="226" t="s">
         <v>70</v>
       </c>
-      <c r="R51" s="223"/>
-      <c r="S51" s="222" t="s">
+      <c r="R51" s="227"/>
+      <c r="S51" s="226" t="s">
         <v>17</v>
       </c>
-      <c r="T51" s="223"/>
+      <c r="T51" s="227"/>
       <c r="U51" s="30" t="s">
         <v>69</v>
       </c>
@@ -6244,18 +6250,18 @@
       <c r="B52" s="217"/>
       <c r="C52" s="217"/>
       <c r="D52" s="217"/>
-      <c r="E52" s="226"/>
-      <c r="F52" s="226"/>
+      <c r="E52" s="221"/>
+      <c r="F52" s="221"/>
       <c r="G52" s="217"/>
       <c r="H52" s="217"/>
-      <c r="I52" s="224"/>
-      <c r="J52" s="224"/>
-      <c r="K52" s="224"/>
-      <c r="L52" s="219"/>
-      <c r="M52" s="220"/>
+      <c r="I52" s="218"/>
+      <c r="J52" s="218"/>
+      <c r="K52" s="218"/>
+      <c r="L52" s="224"/>
+      <c r="M52" s="225"/>
       <c r="N52" s="217"/>
-      <c r="O52" s="220"/>
-      <c r="P52" s="220"/>
+      <c r="O52" s="225"/>
+      <c r="P52" s="225"/>
       <c r="Q52" s="25" t="s">
         <v>74</v>
       </c>
@@ -7050,34 +7056,6 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="A27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="J51:J52"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="B46:G46"/>
-    <mergeCell ref="B47:G47"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
     <mergeCell ref="B36:G36"/>
     <mergeCell ref="B37:G37"/>
     <mergeCell ref="B38:G38"/>
@@ -7094,6 +7072,34 @@
     <mergeCell ref="A43:G43"/>
     <mergeCell ref="B44:G44"/>
     <mergeCell ref="B45:G45"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B30:G30"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations disablePrompts="1" count="3">
@@ -7300,10 +7306,10 @@
         <v>127</v>
       </c>
       <c r="B12" s="108"/>
-      <c r="C12" s="166" t="s">
+      <c r="C12" s="198" t="s">
         <v>147</v>
       </c>
-      <c r="D12" s="166"/>
+      <c r="D12" s="198"/>
       <c r="E12" s="84" t="s">
         <v>128</v>
       </c>
@@ -7320,8 +7326,8 @@
         <v>129</v>
       </c>
       <c r="B13" s="108"/>
-      <c r="C13" s="166"/>
-      <c r="D13" s="166"/>
+      <c r="C13" s="198"/>
+      <c r="D13" s="198"/>
       <c r="E13" s="47"/>
       <c r="F13" s="47"/>
       <c r="G13" s="46"/>
@@ -7359,28 +7365,28 @@
       <c r="F15" s="84"/>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" s="214" t="s">
+      <c r="A16" s="167" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="214"/>
-      <c r="C16" s="214"/>
-      <c r="D16" s="214"/>
-      <c r="E16" s="214"/>
-      <c r="F16" s="214"/>
-      <c r="G16" s="214"/>
+      <c r="B16" s="167"/>
+      <c r="C16" s="167"/>
+      <c r="D16" s="167"/>
+      <c r="E16" s="167"/>
+      <c r="F16" s="167"/>
+      <c r="G16" s="167"/>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" s="104" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="208" t="s">
+      <c r="B17" s="161" t="s">
         <v>134</v>
       </c>
-      <c r="C17" s="209"/>
-      <c r="D17" s="209"/>
-      <c r="E17" s="209"/>
-      <c r="F17" s="209"/>
-      <c r="G17" s="210"/>
+      <c r="C17" s="162"/>
+      <c r="D17" s="162"/>
+      <c r="E17" s="162"/>
+      <c r="F17" s="162"/>
+      <c r="G17" s="163"/>
       <c r="H17" s="94"/>
       <c r="I17" s="94"/>
       <c r="J17" s="94"/>
@@ -7395,12 +7401,12 @@
     </row>
     <row r="18" spans="1:20">
       <c r="A18" s="105"/>
-      <c r="B18" s="188"/>
-      <c r="C18" s="188"/>
-      <c r="D18" s="188"/>
-      <c r="E18" s="188"/>
-      <c r="F18" s="188"/>
-      <c r="G18" s="188"/>
+      <c r="B18" s="183"/>
+      <c r="C18" s="183"/>
+      <c r="D18" s="183"/>
+      <c r="E18" s="183"/>
+      <c r="F18" s="183"/>
+      <c r="G18" s="183"/>
       <c r="H18" s="101"/>
       <c r="I18" s="101"/>
       <c r="J18" s="101"/>
@@ -7415,12 +7421,12 @@
     </row>
     <row r="19" spans="1:20">
       <c r="A19" s="106"/>
-      <c r="B19" s="189"/>
-      <c r="C19" s="189"/>
-      <c r="D19" s="189"/>
-      <c r="E19" s="189"/>
-      <c r="F19" s="189"/>
-      <c r="G19" s="189"/>
+      <c r="B19" s="184"/>
+      <c r="C19" s="184"/>
+      <c r="D19" s="184"/>
+      <c r="E19" s="184"/>
+      <c r="F19" s="184"/>
+      <c r="G19" s="184"/>
       <c r="H19" s="101"/>
       <c r="I19" s="101"/>
       <c r="J19" s="101"/>
@@ -7435,12 +7441,12 @@
     </row>
     <row r="20" spans="1:20">
       <c r="A20" s="107"/>
-      <c r="B20" s="190"/>
-      <c r="C20" s="190"/>
-      <c r="D20" s="190"/>
-      <c r="E20" s="190"/>
-      <c r="F20" s="190"/>
-      <c r="G20" s="190"/>
+      <c r="B20" s="185"/>
+      <c r="C20" s="185"/>
+      <c r="D20" s="185"/>
+      <c r="E20" s="185"/>
+      <c r="F20" s="185"/>
+      <c r="G20" s="185"/>
       <c r="H20" s="101"/>
       <c r="I20" s="101"/>
       <c r="J20" s="101"/>
@@ -7459,29 +7465,29 @@
       <c r="M21" s="101"/>
     </row>
     <row r="22" spans="1:20">
-      <c r="A22" s="211" t="s">
+      <c r="A22" s="164" t="s">
         <v>143</v>
       </c>
-      <c r="B22" s="212"/>
-      <c r="C22" s="212"/>
-      <c r="D22" s="212"/>
-      <c r="E22" s="212"/>
-      <c r="F22" s="212"/>
-      <c r="G22" s="213"/>
+      <c r="B22" s="165"/>
+      <c r="C22" s="165"/>
+      <c r="D22" s="165"/>
+      <c r="E22" s="165"/>
+      <c r="F22" s="165"/>
+      <c r="G22" s="166"/>
       <c r="M22" s="101"/>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" s="104" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="180" t="s">
+      <c r="B23" s="168" t="s">
         <v>135</v>
       </c>
-      <c r="C23" s="180"/>
-      <c r="D23" s="180"/>
-      <c r="E23" s="180"/>
-      <c r="F23" s="180"/>
-      <c r="G23" s="180"/>
+      <c r="C23" s="168"/>
+      <c r="D23" s="168"/>
+      <c r="E23" s="168"/>
+      <c r="F23" s="168"/>
+      <c r="G23" s="168"/>
       <c r="H23" s="94"/>
       <c r="I23" s="94"/>
       <c r="J23" s="94"/>
@@ -7497,12 +7503,12 @@
     </row>
     <row r="24" spans="1:20">
       <c r="A24" s="105"/>
-      <c r="B24" s="181"/>
-      <c r="C24" s="181"/>
-      <c r="D24" s="181"/>
-      <c r="E24" s="181"/>
-      <c r="F24" s="181"/>
-      <c r="G24" s="181"/>
+      <c r="B24" s="169"/>
+      <c r="C24" s="169"/>
+      <c r="D24" s="169"/>
+      <c r="E24" s="169"/>
+      <c r="F24" s="169"/>
+      <c r="G24" s="169"/>
       <c r="H24" s="101"/>
       <c r="I24" s="101"/>
       <c r="J24" s="101"/>
@@ -7517,12 +7523,12 @@
     </row>
     <row r="25" spans="1:20">
       <c r="A25" s="106"/>
-      <c r="B25" s="178"/>
-      <c r="C25" s="178"/>
-      <c r="D25" s="178"/>
-      <c r="E25" s="178"/>
-      <c r="F25" s="178"/>
-      <c r="G25" s="178"/>
+      <c r="B25" s="192"/>
+      <c r="C25" s="192"/>
+      <c r="D25" s="192"/>
+      <c r="E25" s="192"/>
+      <c r="F25" s="192"/>
+      <c r="G25" s="192"/>
       <c r="H25" s="101"/>
       <c r="I25" s="101"/>
       <c r="J25" s="101"/>
@@ -7537,12 +7543,12 @@
     </row>
     <row r="26" spans="1:20">
       <c r="A26" s="107"/>
-      <c r="B26" s="179"/>
-      <c r="C26" s="179"/>
-      <c r="D26" s="179"/>
-      <c r="E26" s="179"/>
-      <c r="F26" s="179"/>
-      <c r="G26" s="179"/>
+      <c r="B26" s="202"/>
+      <c r="C26" s="202"/>
+      <c r="D26" s="202"/>
+      <c r="E26" s="202"/>
+      <c r="F26" s="202"/>
+      <c r="G26" s="202"/>
       <c r="H26" s="101"/>
       <c r="I26" s="101"/>
       <c r="J26" s="101"/>
@@ -7577,29 +7583,29 @@
       <c r="R27"/>
     </row>
     <row r="28" spans="1:20">
-      <c r="A28" s="211" t="s">
+      <c r="A28" s="164" t="s">
         <v>144</v>
       </c>
-      <c r="B28" s="212"/>
-      <c r="C28" s="212"/>
-      <c r="D28" s="212"/>
-      <c r="E28" s="212"/>
-      <c r="F28" s="212"/>
-      <c r="G28" s="213"/>
+      <c r="B28" s="165"/>
+      <c r="C28" s="165"/>
+      <c r="D28" s="165"/>
+      <c r="E28" s="165"/>
+      <c r="F28" s="165"/>
+      <c r="G28" s="166"/>
       <c r="M28" s="101"/>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" s="104" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="180" t="s">
+      <c r="B29" s="168" t="s">
         <v>136</v>
       </c>
-      <c r="C29" s="180"/>
-      <c r="D29" s="180"/>
-      <c r="E29" s="180"/>
-      <c r="F29" s="180"/>
-      <c r="G29" s="180"/>
+      <c r="C29" s="168"/>
+      <c r="D29" s="168"/>
+      <c r="E29" s="168"/>
+      <c r="F29" s="168"/>
+      <c r="G29" s="168"/>
       <c r="H29" s="94"/>
       <c r="I29" s="94"/>
       <c r="J29" s="94"/>
@@ -7615,11 +7621,11 @@
     </row>
     <row r="30" spans="1:20">
       <c r="A30" s="105"/>
-      <c r="B30" s="188"/>
-      <c r="C30" s="188"/>
-      <c r="D30" s="188"/>
-      <c r="E30" s="188"/>
-      <c r="F30" s="188"/>
+      <c r="B30" s="183"/>
+      <c r="C30" s="183"/>
+      <c r="D30" s="183"/>
+      <c r="E30" s="183"/>
+      <c r="F30" s="183"/>
       <c r="G30" s="229"/>
       <c r="H30" s="101"/>
       <c r="I30" s="101"/>
@@ -7636,11 +7642,11 @@
     </row>
     <row r="31" spans="1:20">
       <c r="A31" s="106"/>
-      <c r="B31" s="189"/>
-      <c r="C31" s="189"/>
-      <c r="D31" s="189"/>
-      <c r="E31" s="189"/>
-      <c r="F31" s="189"/>
+      <c r="B31" s="184"/>
+      <c r="C31" s="184"/>
+      <c r="D31" s="184"/>
+      <c r="E31" s="184"/>
+      <c r="F31" s="184"/>
       <c r="G31" s="230"/>
       <c r="H31" s="101"/>
       <c r="I31" s="101"/>
@@ -7656,11 +7662,11 @@
     </row>
     <row r="32" spans="1:20">
       <c r="A32" s="107"/>
-      <c r="B32" s="190"/>
-      <c r="C32" s="190"/>
-      <c r="D32" s="190"/>
-      <c r="E32" s="190"/>
-      <c r="F32" s="190"/>
+      <c r="B32" s="185"/>
+      <c r="C32" s="185"/>
+      <c r="D32" s="185"/>
+      <c r="E32" s="185"/>
+      <c r="F32" s="185"/>
       <c r="G32" s="231"/>
       <c r="H32" s="101"/>
       <c r="I32" s="101"/>
@@ -7723,40 +7729,40 @@
       <c r="S35" s="50"/>
     </row>
     <row r="36" spans="1:19" ht="15">
-      <c r="A36" s="225" t="s">
+      <c r="A36" s="220" t="s">
         <v>94</v>
       </c>
-      <c r="B36" s="225" t="s">
+      <c r="B36" s="220" t="s">
         <v>95</v>
       </c>
       <c r="C36" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="D36" s="225" t="s">
+      <c r="D36" s="220" t="s">
         <v>91</v>
       </c>
-      <c r="E36" s="225" t="s">
+      <c r="E36" s="220" t="s">
         <v>126</v>
       </c>
-      <c r="F36" s="225" t="s">
+      <c r="F36" s="220" t="s">
         <v>129</v>
       </c>
-      <c r="G36" s="225" t="s">
+      <c r="G36" s="220" t="s">
         <v>107</v>
       </c>
-      <c r="H36" s="225" t="s">
+      <c r="H36" s="220" t="s">
         <v>92</v>
       </c>
-      <c r="I36" s="224" t="s">
+      <c r="I36" s="218" t="s">
         <v>154</v>
       </c>
-      <c r="J36" s="224" t="s">
+      <c r="J36" s="218" t="s">
         <v>155</v>
       </c>
-      <c r="K36" s="224" t="s">
+      <c r="K36" s="218" t="s">
         <v>156</v>
       </c>
-      <c r="L36" s="218" t="s">
+      <c r="L36" s="223" t="s">
         <v>153</v>
       </c>
       <c r="M36" s="216" t="s">
@@ -7773,7 +7779,7 @@
       <c r="R36" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="S36" s="225" t="s">
+      <c r="S36" s="220" t="s">
         <v>101</v>
       </c>
     </row>
@@ -7784,15 +7790,15 @@
         <v>97</v>
       </c>
       <c r="D37" s="228"/>
-      <c r="E37" s="226"/>
-      <c r="F37" s="226"/>
+      <c r="E37" s="221"/>
+      <c r="F37" s="221"/>
       <c r="G37" s="228"/>
       <c r="H37" s="228"/>
-      <c r="I37" s="224"/>
-      <c r="J37" s="224"/>
-      <c r="K37" s="224"/>
-      <c r="L37" s="219"/>
-      <c r="M37" s="220"/>
+      <c r="I37" s="218"/>
+      <c r="J37" s="218"/>
+      <c r="K37" s="218"/>
+      <c r="L37" s="224"/>
+      <c r="M37" s="225"/>
       <c r="N37" s="54" t="s">
         <v>102</v>
       </c>
@@ -8316,6 +8322,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="L36:L37"/>
+    <mergeCell ref="B26:G26"/>
     <mergeCell ref="S36:S37"/>
     <mergeCell ref="A28:G28"/>
     <mergeCell ref="B29:G29"/>
@@ -8332,22 +8354,6 @@
     <mergeCell ref="M36:M37"/>
     <mergeCell ref="N36:O36"/>
     <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="L36:L37"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B24:G24"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
